--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail0 Features.xlsx
@@ -6289,7 +6289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6300,29 +6300,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6343,115 +6341,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6468,72 +6456,66 @@
         <v>4.131436205671321e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.504626581538318</v>
+        <v>2.616326261945578e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>12.72772665724963</v>
+        <v>8.339215513991771e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.616326261945578e-07</v>
+        <v>-0.1049612408246107</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>8.339215513991771e-07</v>
+        <v>0.2876183338118923</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1049612408246107</v>
+        <v>0.09352381297657687</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2876183338118923</v>
+        <v>1.922358770820675</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09352381297657687</v>
+        <v>3.460526865144159</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.958682907133418</v>
+        <v>6.631460093175115</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.460526865144159</v>
+        <v>8.533886830065152e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>6.631460093175115</v>
+        <v>64912493997.25914</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.533886830065152e-19</v>
+        <v>1.846569412378416e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>64912493997.25914</v>
+        <v>3595.865758139685</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.846569412378416e-09</v>
+        <v>4.287201975256371e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3595.865758139685</v>
+        <v>10.39077503816762</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>4.287201975256371e-05</v>
+        <v>1.234624722550586</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.39077503816762</v>
+        <v>0.004628815055728175</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.234624722550586</v>
+        <v>6.71703768207649</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.004628815055728175</v>
+        <v>0.9630356268224636</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>6.71703768207649</v>
+        <v>0.7939848994291108</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9630356268224636</v>
+        <v>360</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.7939848994291108</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>11.00353208058408</v>
       </c>
     </row>
@@ -6548,72 +6530,66 @@
         <v>3.111788880945425e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.435590900778814</v>
+        <v>1.958341370649315e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>12.24965749468542</v>
+        <v>8.30166601609836e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.958341370649315e-07</v>
+        <v>-0.1040410933418731</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>8.30166601609836e-07</v>
+        <v>0.2812969943155123</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1040410933418731</v>
+        <v>0.08974261912420869</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2812969943155123</v>
+        <v>1.92264636364502</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08974261912420869</v>
+        <v>3.818477639324783</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.957965782608257</v>
+        <v>7.115737948450288</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.818477639324783</v>
+        <v>7.411827588764132e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>7.115737948450288</v>
+        <v>75632133879.1749</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>7.411827588764132e-19</v>
+        <v>1.587402706834796e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>75632133879.1749</v>
+        <v>4239.728200182681</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.587402706834796e-09</v>
+        <v>3.341375269024846e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>4239.728200182681</v>
+        <v>8.006995796329674</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>3.341375269024846e-05</v>
+        <v>1.33563876705046</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.006995796329674</v>
+        <v>0.002142221900418825</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.33563876705046</v>
+        <v>6.925703202169915</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.002142221900418825</v>
+        <v>0.9635387786341937</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.925703202169915</v>
+        <v>0.7896665615005442</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9635387786341937</v>
+        <v>386</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.7896665615005442</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>386</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>10.99113694924397</v>
       </c>
     </row>
@@ -6628,72 +6604,66 @@
         <v>2.361316489706074e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.350292980500492</v>
+        <v>1.474945412206249e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>11.68004734729606</v>
+        <v>8.273566633794252e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.474945412206249e-07</v>
+        <v>-0.1028519517553297</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.273566633794252e-07</v>
+        <v>0.2740040228122586</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1028519517553297</v>
+        <v>0.08545947384062448</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2740040228122586</v>
+        <v>1.924262387525902</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08545947384062448</v>
+        <v>3.758705540715514</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.957741690399247</v>
+        <v>7.309865855178823</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.758705540715514</v>
+        <v>7.21925478683485e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>7.309865855178823</v>
+        <v>78026288287.41953</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.21925478683485e-19</v>
+        <v>1.53731204609597e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>78026288287.41953</v>
+        <v>4395.155707993033</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.53731204609597e-09</v>
+        <v>2.824591802328097e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>4395.155707993033</v>
+        <v>6.154647687377563</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>2.824591802328097e-05</v>
+        <v>1.610132010742636</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.154647687377563</v>
+        <v>0.001069946566394535</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.610132010742636</v>
+        <v>7.051345141666959</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.001069946566394535</v>
+        <v>0.9622181172385254</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>7.051345141666959</v>
+        <v>0.8082810862230071</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9622181172385254</v>
+        <v>382</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.8082810862230071</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>382</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>10.79847488567755</v>
       </c>
     </row>
@@ -6708,72 +6678,66 @@
         <v>1.807472062542226e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3.244444776910002</v>
+        <v>1.119512440847457e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>11.00174758620337</v>
+        <v>8.252439638524574e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.119512440847457e-07</v>
+        <v>-0.1012867966157452</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>8.252439638524574e-07</v>
+        <v>0.2661374721674849</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.1012867966157452</v>
+        <v>0.08090596368197121</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2661374721674849</v>
+        <v>1.925091895677359</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.08090596368197121</v>
+        <v>3.939353007945302</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.959127438567187</v>
+        <v>7.062269803847245</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.939353007945302</v>
+        <v>7.236294838138968e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>7.062269803847245</v>
+        <v>75154361637.04707</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.236294838138968e-19</v>
+        <v>1.598571875495215e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>75154361637.04707</v>
+        <v>4087.188183506101</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.598571875495215e-09</v>
+        <v>2.862295604036633e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>4087.188183506101</v>
+        <v>7.141979733572875</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.862295604036633e-05</v>
+        <v>1.402490391472653</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.141979733572875</v>
+        <v>0.00145999614994866</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.402490391472653</v>
+        <v>6.949045060447793</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.00145999614994866</v>
+        <v>0.9615137626857488</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>6.949045060447793</v>
+        <v>0.8547866985218717</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9615137626857488</v>
+        <v>353</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.8547866985218717</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>353</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>10.44084929992816</v>
       </c>
     </row>
@@ -6788,72 +6752,66 @@
         <v>1.397191076897052e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>3.109720697977478</v>
+        <v>8.564920009955235e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>10.15441255144838</v>
+        <v>8.2364697781188e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.564920009955235e-08</v>
+        <v>-0.09936915177137809</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>8.2364697781188e-07</v>
+        <v>0.2573164662450892</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.09936915177137809</v>
+        <v>0.07591649797462433</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2573164662450892</v>
+        <v>1.92422314472228</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.07591649797462433</v>
+        <v>3.479187918729234</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.957206059309725</v>
+        <v>6.126650177910872</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.479187918729234</v>
+        <v>1.332679196565835e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.126650177910872</v>
+        <v>41317859251.23844</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.332679196565835e-18</v>
+        <v>2.906602061789579e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>41317859251.23844</v>
+        <v>2275.103937756289</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.906602061789579e-09</v>
+        <v>3.376132140197918e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2275.103937756289</v>
+        <v>8.868638546610804</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>3.376132140197918e-05</v>
+        <v>1.543184258051835</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.868638546610804</v>
+        <v>0.002655420760772832</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.543184258051835</v>
+        <v>6.874844386067521</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.002655420760772832</v>
+        <v>0.9611001192912976</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>6.874844386067521</v>
+        <v>0.9898254041895419</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9611001192912976</v>
+        <v>315</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9898254041895419</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>315</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>10.16517191176223</v>
       </c>
     </row>
@@ -6868,72 +6826,66 @@
         <v>1.093702619765766e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2.944978804405356</v>
+        <v>6.59975205492531e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>9.137460194236075</v>
+        <v>8.224314438660335e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.59975205492531e-08</v>
+        <v>-0.09707811230444759</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>8.224314438660335e-07</v>
+        <v>0.2458221641628352</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.09707811230444759</v>
+        <v>0.06969907289268594</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2458221641628352</v>
+        <v>1.92609011768973</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.06969907289268594</v>
+        <v>3.375958099484587</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.955109610249598</v>
+        <v>5.105860785860667</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.375958099484587</v>
+        <v>1.918818277560318e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.105860785860667</v>
+        <v>28283053007.63368</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.918818277560318e-18</v>
+        <v>4.249283151333709e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>28283053007.63368</v>
+        <v>1534.922391354406</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.249283151333709e-09</v>
+        <v>4.483707113554189e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1534.922391354406</v>
+        <v>8.298763765599901</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>4.483707113554189e-05</v>
+        <v>1.678818241896348</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.298763765599901</v>
+        <v>0.003087905775497237</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.678818241896348</v>
+        <v>6.38187455639799</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.003087905775497237</v>
+        <v>0.9605302065885207</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>6.38187455639799</v>
+        <v>0.9580499255309151</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9605302065885207</v>
+        <v>263</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9580499255309151</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>263</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>8.254119651569621</v>
       </c>
     </row>
@@ -6948,72 +6900,66 @@
         <v>8.699501831542005e-09</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2.759353637913508</v>
+        <v>5.138913207621773e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>8.046226153321292</v>
+        <v>8.214964088117055e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5.138913207621773e-08</v>
+        <v>-0.094538567331497</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>8.214964088117055e-07</v>
+        <v>0.2324463055240916</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.094538567331497</v>
+        <v>0.06283505653896861</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2324463055240916</v>
+        <v>1.917031334289896</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.06283505653896861</v>
+        <v>3.465313872378774</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.952653816514847</v>
+        <v>4.951855166207146</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.465313872378774</v>
+        <v>2.040027011183613e-18</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.951855166207146</v>
+        <v>25742242764.80692</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.040027011183613e-18</v>
+        <v>4.632211611112088e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>25742242764.80692</v>
+        <v>1351.850546940655</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.632211611112088e-09</v>
+        <v>6.327993287067177e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1351.850546940655</v>
+        <v>8.018692757755227</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>6.327993287067177e-05</v>
+        <v>1.283527693681991</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.018692757755227</v>
+        <v>0.004068863838240734</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.283527693681991</v>
+        <v>5.301505961981224</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.004068863838240734</v>
+        <v>0.9604674696922857</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>5.301505961981224</v>
+        <v>0.997030124197364</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9604674696922857</v>
+        <v>230</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.997030124197364</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>230</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>5.189660246048881</v>
       </c>
     </row>
@@ -7028,72 +6974,66 @@
         <v>7.048046632797581e-09</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2.564988658530145</v>
+        <v>4.064345206157818e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>7.008538053687367</v>
+        <v>8.207663922693541e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.064345206157818e-08</v>
+        <v>-0.09201440709336189</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>8.207663922693541e-07</v>
+        <v>0.2198367004960999</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.09201440709336189</v>
+        <v>0.05668794213102001</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2198367004960999</v>
+        <v>1.918845273955772</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.05668794213102001</v>
+        <v>3.188474504932881</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.955755529027299</v>
+        <v>4.962110816446425</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.188474504932881</v>
+        <v>2.031603102983284e-18</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.962110816446425</v>
+        <v>25836436768.13389</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.031603102983284e-18</v>
+        <v>4.618076539110073e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>25836436768.13389</v>
+        <v>1356.13867934552</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.618076539110073e-09</v>
+        <v>8.162657249349813e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1356.13867934552</v>
+        <v>8.112455155085964</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>8.162657249349813e-05</v>
+        <v>1.233685105233951</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.112455155085964</v>
+        <v>0.00537200216433769</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.233685105233951</v>
+        <v>4.537716673541196</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.00537200216433769</v>
+        <v>0.9605170242719961</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.537716673541196</v>
+        <v>1.009692472270962</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9605170242719961</v>
+        <v>253</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.009692472270962</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>253</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>3.484590447130802</v>
       </c>
     </row>
@@ -7108,72 +7048,66 @@
         <v>5.810330349531442e-09</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2.357035045353429</v>
+        <v>3.282688902944292e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>6.010159899593244</v>
+        <v>8.201842258246781e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.282688902944292e-08</v>
+        <v>-0.09001835104256374</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>8.201842258246781e-07</v>
+        <v>0.2122449509572549</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.09001835104256374</v>
+        <v>0.0530649667082036</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2122449509572549</v>
+        <v>1.921318403145483</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.0530649667082036</v>
+        <v>3.40305274951588</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.958037199259555</v>
+        <v>4.949118995932407</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.40305274951588</v>
+        <v>2.042283333679136e-18</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.949118995932407</v>
+        <v>25958131608.78443</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.042283333679136e-18</v>
+        <v>4.610589605531536e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>25958131608.78443</v>
+        <v>1376.140743497996</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.610589605531536e-09</v>
+        <v>9.235886538092038e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1376.140743497996</v>
+        <v>8.005269211146667</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>9.235886538092038e-05</v>
+        <v>1.293814711378022</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.005269211146667</v>
+        <v>0.005918756482491913</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.293814711378022</v>
+        <v>4.28094193343162</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.005918756482491913</v>
+        <v>0.9606320867546492</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.28094193343162</v>
+        <v>0.9874111157710013</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9606320867546492</v>
+        <v>225</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.9874111157710013</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>225</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>2.872664360132885</v>
       </c>
     </row>
@@ -7188,72 +7122,66 @@
         <v>4.86749930155554e-09</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2.123916239011009</v>
+        <v>2.691150895683747e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>4.965510561552738</v>
+        <v>8.197110191633526e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.691150895683747e-08</v>
+        <v>-0.08801969006528663</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>8.197110191633526e-07</v>
+        <v>0.2079047555283206</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.08801969006528663</v>
+        <v>0.05089910364705547</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2079047555283206</v>
+        <v>1.920382461937474</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.05089910364705547</v>
+        <v>3.655390788938818</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.955496933251194</v>
+        <v>4.899504315452796</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.655390788938818</v>
+        <v>2.083854999735315e-18</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.899504315452796</v>
+        <v>26146120950.25196</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.083854999735315e-18</v>
+        <v>4.576231272760826e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>26146120950.25196</v>
+        <v>1424.564206284154</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.576231272760826e-09</v>
+        <v>9.655107580081375e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1424.564206284154</v>
+        <v>7.669674754993635</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>9.655107580081375e-05</v>
+        <v>1.395859747624528</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.669674754993635</v>
+        <v>0.005679511875126341</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.395859747624528</v>
+        <v>4.34656064229214</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.005679511875126341</v>
+        <v>0.9603129331812835</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>4.34656064229214</v>
+        <v>1.001325166145879</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9603129331812835</v>
+        <v>210</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.001325166145879</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>2.884435113908633</v>
       </c>
     </row>
@@ -7268,72 +7196,66 @@
         <v>4.147353653830606e-09</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.866657236129783</v>
+        <v>2.233081362051363e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>3.87247371411086</v>
+        <v>8.193198908379092e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.233081362051363e-08</v>
+        <v>-0.08632273636087864</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>8.193198908379092e-07</v>
+        <v>0.2059362343325576</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.08632273636087864</v>
+        <v>0.04980012223253389</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2059362343325576</v>
+        <v>1.923137070201146</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.04980012223253389</v>
+        <v>3.213726137330176</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.954840837678053</v>
+        <v>4.705117798203116</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.213726137330176</v>
+        <v>2.259595927847763e-18</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.705117798203116</v>
+        <v>24168277678.03974</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.259595927847763e-18</v>
+        <v>4.957804312676317e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>24168277678.03974</v>
+        <v>1319.842738960123</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.957804312676317e-09</v>
+        <v>9.222876709983148e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1319.842738960123</v>
+        <v>7.928536300223906</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>9.222876709983148e-05</v>
+        <v>1.511421419134153</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>7.928536300223906</v>
+        <v>0.005797655969508223</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.511421419134153</v>
+        <v>4.585934897653994</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.005797655969508223</v>
+        <v>0.9608184582391086</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>4.585934897653994</v>
+        <v>1.02776295055624</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9608184582391086</v>
+        <v>199</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.02776295055624</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>199</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>3.500474753637484</v>
       </c>
     </row>
@@ -7348,72 +7270,66 @@
         <v>3.600655508259807e-09</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.591929836866191</v>
+        <v>1.875828608101809e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>2.759076530227038</v>
+        <v>8.189892680824146e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.875828608101809e-08</v>
+        <v>-0.08506331813952679</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>8.189892680824146e-07</v>
+        <v>0.2065938448383193</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.08506331813952679</v>
+        <v>0.04986663762484902</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2065938448383193</v>
+        <v>1.920587734782347</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.04986663762484902</v>
+        <v>2.80997906162973</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.955741329112935</v>
+        <v>5.413773719584256</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.80997906162973</v>
+        <v>2.203543471903002e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.413773719584256</v>
+        <v>25298576502.12359</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.203543471903002e-18</v>
+        <v>4.734617577711443e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>25298576502.12359</v>
+        <v>1410.307426379221</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.734617577711443e-09</v>
+        <v>9.073567266376515e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>1410.307426379221</v>
+        <v>8.499135741028804</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>9.073567266376515e-05</v>
+        <v>1.349353560670032</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.499135741028804</v>
+        <v>0.006554319292706635</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.349353560670032</v>
+        <v>4.47436689420021</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.006554319292706635</v>
+        <v>0.9606161566432777</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>4.47436689420021</v>
+        <v>1.01198534592333</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9606161566432777</v>
+        <v>215</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.01198534592333</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>215</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>3.427230016744971</v>
       </c>
     </row>
@@ -7428,72 +7344,66 @@
         <v>3.190492729384953e-09</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.309455697030985</v>
+        <v>1.606352608965588e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1.666413875027693</v>
+        <v>8.18703324017386e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.606352608965588e-08</v>
+        <v>-0.08396413265988673</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>8.18703324017386e-07</v>
+        <v>0.2096105695151491</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.08396413265988673</v>
+        <v>0.05094595839108737</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2096105695151491</v>
+        <v>1.924855774571188</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.05094595839108737</v>
+        <v>2.875403188415171</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.95596786400582</v>
+        <v>5.666551880457043</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.875403188415171</v>
+        <v>2.011333481795886e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.666551880457043</v>
+        <v>28262549057.75217</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.011333481795886e-18</v>
+        <v>4.24285051490062e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>28262549057.75217</v>
+        <v>1606.596222769453</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.24285051490062e-09</v>
+        <v>9.653697378423306e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>1606.596222769453</v>
+        <v>8.571698636323308</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>9.653697378423306e-05</v>
+        <v>1.301610554414681</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.571698636323308</v>
+        <v>0.007092959302373095</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.301610554414681</v>
+        <v>4.105373312944296</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.007092959302373095</v>
+        <v>0.9599059834676655</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>4.105373312944296</v>
+        <v>0.9835789901394679</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9599059834676655</v>
+        <v>257</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.9835789901394679</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>257</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>2.780518833498292</v>
       </c>
     </row>
@@ -7508,72 +7418,66 @@
         <v>2.890128294389128e-09</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.032495323746107</v>
+        <v>1.435662022353655e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.6643803983123231</v>
+        <v>8.184505131894806e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.435662022353655e-08</v>
+        <v>-0.08283959669007931</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>8.184505131894806e-07</v>
+        <v>0.2137147025093055</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.08283959669007931</v>
+        <v>0.05250179847596145</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2137147025093055</v>
+        <v>1.929983744583451</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.05250179847596145</v>
+        <v>2.995352484944584</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.958682282225763</v>
+        <v>5.904486988185404</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.995352484944584</v>
+        <v>1.852496866664044e-18</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.904486988185404</v>
+        <v>29570166456.21757</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.852496866664044e-18</v>
+        <v>4.066971325080481e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>29570166456.21757</v>
+        <v>1619.813523947697</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.066971325080481e-09</v>
+        <v>9.750687142240305e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>1619.813523947697</v>
+        <v>7.692560212712037</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>9.750687142240305e-05</v>
+        <v>1.284360279075106</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.692560212712037</v>
+        <v>0.005770016175791553</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.284360279075106</v>
+        <v>4.079483338220004</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.005770016175791553</v>
+        <v>0.9593503054997323</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>4.079483338220004</v>
+        <v>1.019950841208618</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9593503054997323</v>
+        <v>275</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.019950841208618</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>275</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>2.447771227887004</v>
       </c>
     </row>
@@ -7588,72 +7492,66 @@
         <v>2.683376038626544e-09</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.7807633937424288</v>
+        <v>1.304777216385386e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.1201450115488054</v>
+        <v>8.182225741125752e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.304777216385386e-08</v>
+        <v>-0.08108762623485137</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>8.182225741125752e-07</v>
+        <v>0.2162807928059606</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.08108762623485137</v>
+        <v>0.05332202128672111</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2162807928059606</v>
+        <v>1.939178078499538</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.05332202128672111</v>
+        <v>2.995856130630588</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.963399256416973</v>
+        <v>5.971171782132673</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.995856130630588</v>
+        <v>1.811351316366235e-18</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.971171782132673</v>
+        <v>30342492637.1187</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.811351316366235e-18</v>
+        <v>3.968366704062731e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>30342492637.1187</v>
+        <v>1667.651127769824</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.968366704062731e-09</v>
+        <v>9.654909311915316e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>1667.651127769824</v>
+        <v>7.380232975192336</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>9.654909311915316e-05</v>
+        <v>1.363326585378605</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.380232975192336</v>
+        <v>0.005258820437221884</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.363326585378605</v>
+        <v>4.221085920245579</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.005258820437221884</v>
+        <v>0.9590395227046212</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>4.221085920245579</v>
+        <v>1.014807438532375</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9590395227046212</v>
+        <v>291</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.014807438532375</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>291</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>2.729773671826121</v>
       </c>
     </row>
@@ -7668,72 +7566,66 @@
         <v>2.559098976584627e-09</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.5740077795356948</v>
+        <v>1.198643590749318e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.5646068327282125</v>
+        <v>8.180141834851695e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.198643590749318e-08</v>
+        <v>-0.07810677689095863</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>8.180141834851695e-07</v>
+        <v>0.2157859480679624</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.07810677689095863</v>
+        <v>0.05263866004692819</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2157859480679624</v>
+        <v>1.944158213980263</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.05263866004692819</v>
+        <v>2.974076000667154</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.967092291741098</v>
+        <v>6.02664355210733</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.974076000667154</v>
+        <v>1.778159893056331e-18</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>6.02664355210733</v>
+        <v>30415725667.84035</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.778159893056331e-18</v>
+        <v>3.968359110003453e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>30415725667.84035</v>
+        <v>1645.004821812076</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.968359110003453e-09</v>
+        <v>9.317550920816534e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>1645.004821812076</v>
+        <v>8.037296387185446</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>9.317550920816534e-05</v>
+        <v>1.453205464279929</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.037296387185446</v>
+        <v>0.006018963956247778</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.453205464279929</v>
+        <v>4.5296445645362</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.006018963956247778</v>
+        <v>0.9581425755681277</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>4.5296445645362</v>
+        <v>0.9935785225504962</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9581425755681277</v>
+        <v>288</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.9935785225504962</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>288</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>3.705858686150586</v>
       </c>
     </row>
@@ -7748,72 +7640,66 @@
         <v>2.504851531354269e-09</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.4222528796990533</v>
+        <v>1.094712193509686e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.6696889709117881</v>
+        <v>8.178229163425106e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.094712193509686e-08</v>
+        <v>-0.07287951976037987</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>8.178229163425106e-07</v>
+        <v>0.2101837243816314</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.07287951976037987</v>
+        <v>0.04946415525037131</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2101837243816314</v>
+        <v>1.945643385506953</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.04946415525037131</v>
+        <v>3.043085891198272</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.967137560903118</v>
+        <v>5.981874541631859</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.043085891198272</v>
+        <v>1.937713749121493e-18</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.981874541631859</v>
+        <v>27754111386.22123</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.937713749121493e-18</v>
+        <v>4.345802860400841e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>27754111386.22123</v>
+        <v>1492.602877960298</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>4.345802860400841e-09</v>
+        <v>8.763976250168766e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>1492.602877960298</v>
+        <v>8.485361056894074</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>8.763976250168766e-05</v>
+        <v>1.417443922567547</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.485361056894074</v>
+        <v>0.006310181412379842</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.417443922567547</v>
+        <v>4.938283054599522</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.006310181412379842</v>
+        <v>0.9572176321262176</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>4.938283054599522</v>
+        <v>1.037429137164638</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9572176321262176</v>
+        <v>258</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.037429137164638</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>258</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>4.934327704045184</v>
       </c>
     </row>
@@ -7828,72 +7714,66 @@
         <v>2.508402136861337e-09</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.3286022177741305</v>
+        <v>1.020198733037422e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.5630959370525428</v>
+        <v>8.176500465887659e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.020198733037422e-08</v>
+        <v>-0.0649839125493428</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>8.176500465887659e-07</v>
+        <v>0.1987108349524623</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.0649839125493428</v>
+        <v>0.04368665274247877</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1987108349524623</v>
+        <v>1.938807298039957</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.04368665274247877</v>
+        <v>2.833525585568805</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.964090260289142</v>
+        <v>5.948083333646339</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.833525585568805</v>
+        <v>2.029259322948983e-18</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.948083333646339</v>
+        <v>26795751413.58012</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.029259322948983e-18</v>
+        <v>4.487831073116093e-09</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>26795751413.58012</v>
+        <v>1457.033141222934</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>4.487831073116093e-09</v>
+        <v>7.692054746552669e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>1457.033141222934</v>
+        <v>8.433359794970922</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>7.692054746552669e-05</v>
+        <v>1.272863538180602</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.433359794970922</v>
+        <v>0.005470709134226646</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.272863538180602</v>
+        <v>5.226103057865623</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.005470709134226646</v>
+        <v>0.9572555004080404</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>5.226103057865623</v>
+        <v>1.028848942205723</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9572555004080404</v>
+        <v>260</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.028848942205723</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>260</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>5.815788441014056</v>
       </c>
     </row>
@@ -7908,72 +7788,66 @@
         <v>2.552704209812649e-09</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.2785584404789606</v>
+        <v>1.035425151798987e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.4329166767469306</v>
+        <v>8.174975042130149e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.035425151798987e-08</v>
+        <v>-0.05571389757973596</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>8.174975042130149e-07</v>
+        <v>0.1848109420767071</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.05571389757973596</v>
+        <v>0.03724222187371645</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1848109420767071</v>
+        <v>1.937633114585205</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.03724222187371645</v>
+        <v>3.327302797840476</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.966747950225975</v>
+        <v>5.889751386188236</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.327302797840476</v>
+        <v>2.069653835499699e-18</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>5.889751386188236</v>
+        <v>26295162830.31417</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.069653835499699e-18</v>
+        <v>4.569699529009189e-09</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>26295162830.31417</v>
+        <v>1431.032317269659</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.569699529009189e-09</v>
+        <v>6.825253242296467e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>1431.032317269659</v>
+        <v>7.998472785666346</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>6.825253242296467e-05</v>
+        <v>1.277808677337019</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>7.998472785666346</v>
+        <v>0.004366494454327635</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.277808677337019</v>
+        <v>5.339280415668214</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.004366494454327635</v>
+        <v>0.9591737909229293</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>5.339280415668214</v>
+        <v>0.9110412006536166</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9591737909229293</v>
+        <v>251</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.9110412006536166</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>251</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>5.927921196727269</v>
       </c>
     </row>
@@ -7988,72 +7862,66 @@
         <v>2.6187892012131e-09</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.2515706819507008</v>
+        <v>1.039104280425974e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.3780298979461696</v>
+        <v>8.173653290260886e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.039104280425974e-08</v>
+        <v>-0.04679494168445352</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>8.173653290260886e-07</v>
+        <v>0.1720769055385071</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04679494168445352</v>
+        <v>0.03178837063979107</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1720769055385071</v>
+        <v>1.938700510168885</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.03178837063979107</v>
+        <v>2.791917748248763</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.968118204817395</v>
+        <v>6.458708416471454</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.791917748248763</v>
+        <v>1.72107692505348e-18</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>6.458708416471454</v>
+        <v>31353869727.07325</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.72107692505348e-18</v>
+        <v>3.827655290394424e-09</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>31353869727.07325</v>
+        <v>1691.930740088982</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.827655290394424e-09</v>
+        <v>5.823993252119511e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>1691.930740088982</v>
+        <v>8.020007717126415</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>5.823993252119511e-05</v>
+        <v>1.142471956680233</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.020007717126415</v>
+        <v>0.00374602296483629</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.142471956680233</v>
+        <v>5.573388220312518</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.00374602296483629</v>
+        <v>0.9598890711806952</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>5.573388220312518</v>
+        <v>0.8921209805037119</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9598890711806952</v>
+        <v>262</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.8921209805037119</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>262</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>6.76072856569736</v>
       </c>
     </row>
@@ -8068,72 +7936,66 @@
         <v>2.693397021491202e-09</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.2329074787474339</v>
+        <v>1.039948058153561e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.3963815932872117</v>
+        <v>8.17251906542547e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.039948058153561e-08</v>
+        <v>-0.0389365148106053</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>8.17251906542547e-07</v>
+        <v>0.1609901178503827</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.0389365148106053</v>
+        <v>0.02742506642637801</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1609901178503827</v>
+        <v>1.932557912803503</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02742506642637801</v>
+        <v>3.057573194232325</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.964472539301977</v>
+        <v>7.567327578198924</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>3.057573194232325</v>
+        <v>1.253737367382745e-18</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>7.567327578198924</v>
+        <v>42826475060.07276</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.253737367382745e-18</v>
+        <v>2.80230149315805e-09</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>42826475060.07276</v>
+        <v>2299.488439140253</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.80230149315805e-09</v>
+        <v>6.121218213309267e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>2299.488439140253</v>
+        <v>8.824201449887337</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>6.121218213309267e-05</v>
+        <v>1.278751476766659</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.824201449887337</v>
+        <v>0.004766380291612346</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.278751476766659</v>
+        <v>5.728185442423325</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.004766380291612346</v>
+        <v>0.9612481845832742</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>5.728185442423325</v>
+        <v>0.9028175354387201</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9612481845832742</v>
+        <v>286</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.9028175354387201</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>286</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>7.098243054820358</v>
       </c>
     </row>
@@ -8148,72 +8010,66 @@
         <v>2.77082403567685e-09</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.2122387933867401</v>
+        <v>1.050272837057616e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.4539766836666037</v>
+        <v>8.171542870988946e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.050272837057616e-08</v>
+        <v>-0.0329417540430581</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>8.171542870988946e-07</v>
+        <v>0.1517284447391503</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.0329417540430581</v>
+        <v>0.02410081104324774</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1517284447391503</v>
+        <v>1.939127274255548</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02410081104324774</v>
+        <v>3.353964739946118</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.967003112626757</v>
+        <v>7.585748347609012</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>3.353964739946118</v>
+        <v>1.247655761487886e-18</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>7.585748347609012</v>
+        <v>43127405578.40479</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.247655761487886e-18</v>
+        <v>2.793548684186085e-09</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>43127405578.40479</v>
+        <v>2320.606169304806</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.793548684186085e-09</v>
+        <v>9.372045384860371e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>2320.606169304806</v>
+        <v>9.160275427433783</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>9.372045384860371e-05</v>
+        <v>1.604489985817173</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.160275427433783</v>
+        <v>0.007864143817081712</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.604489985817173</v>
+        <v>5.498027881062069</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.007864143817081712</v>
+        <v>0.9619612557585856</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>5.498027881062069</v>
+        <v>0.8937208998219267</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9619612557585856</v>
+        <v>282</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.8937208998219267</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>282</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>6.516640711566449</v>
       </c>
     </row>
@@ -8228,72 +8084,66 @@
         <v>2.849888539773058e-09</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1842996437287001</v>
+        <v>1.070764476206035e-08</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.5216482110534533</v>
+        <v>8.170677578118232e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.070764476206035e-08</v>
+        <v>-0.02901078930988646</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>8.170677578118232e-07</v>
+        <v>0.1447706704549662</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.02901078930988646</v>
+        <v>0.02179677391545222</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1447706704549662</v>
+        <v>1.939847347595414</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.02179677391545222</v>
+        <v>3.226209141224063</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.966085948152429</v>
+        <v>7.410667330492704</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3.226209141224063</v>
+        <v>1.307305242774526e-18</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>7.410667330492704</v>
+        <v>42843299637.8933</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.307305242774526e-18</v>
+        <v>2.817985689527372e-09</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>42843299637.8933</v>
+        <v>2399.621947151189</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.817985689527372e-09</v>
+        <v>0.0001184807105855617</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>2399.621947151189</v>
+        <v>10.04937479604416</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001184807105855617</v>
+        <v>1.458413144566882</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>10.04937479604416</v>
+        <v>0.01196535911759006</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.458413144566882</v>
+        <v>5.06616936895001</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01196535911759006</v>
+        <v>0.9610754724749687</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>5.06616936895001</v>
+        <v>0.8805010216807286</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9610754724749687</v>
+        <v>262</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.8805010216807286</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>262</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>5.819909727525532</v>
       </c>
     </row>
@@ -8308,72 +8158,66 @@
         <v>2.930121213016013e-09</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.150141838104426</v>
+        <v>1.091568684828107e-08</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.5858378539166869</v>
+        <v>8.169881906176708e-07</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.091568684828107e-08</v>
+        <v>-0.02609802763680295</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>8.169881906176708e-07</v>
+        <v>0.1391842783985356</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.02609802763680295</v>
+        <v>0.02005085685940773</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1391842783985356</v>
+        <v>1.935293348520953</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.02005085685940773</v>
+        <v>2.943311484216048</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.963321053939832</v>
+        <v>7.386482765696837</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.943311484216048</v>
+        <v>1.315879923947079e-18</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>7.386482765696837</v>
+        <v>42375661830.9775</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.315879923947079e-18</v>
+        <v>2.840034036730636e-09</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>42375661830.9775</v>
+        <v>2362.921257573332</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.840034036730636e-09</v>
+        <v>0.0001121660275907317</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>2362.921257573332</v>
+        <v>11.62881029804588</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001121660275907317</v>
+        <v>1.065872861493115</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>11.62881029804588</v>
+        <v>0.01516812542524778</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.065872861493115</v>
+        <v>4.704048030753242</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01516812542524778</v>
+        <v>0.9590785368415553</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>4.704048030753242</v>
+        <v>0.907090517395107</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9590785368415553</v>
+        <v>270</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.907090517395107</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>270</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>5.507042581666469</v>
       </c>
     </row>
@@ -8388,72 +8232,66 @@
         <v>3.00848926021725e-09</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.1146754212316252</v>
+        <v>1.101328536323366e-08</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.6449078082135609</v>
+        <v>8.169154008569468e-07</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.101328536323366e-08</v>
+        <v>-0.02294205997189196</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>8.169154008569468e-07</v>
+        <v>0.1340497657237852</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.02294205997189196</v>
+        <v>0.01849386998135139</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1340497657237852</v>
+        <v>1.93623843596713</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01849386998135139</v>
+        <v>3.282638072471802</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.967740096294582</v>
+        <v>7.347379358478623</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>3.282638072471802</v>
+        <v>1.329923656025971e-18</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>7.347379358478623</v>
+        <v>40675284618.76578</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.329923656025971e-18</v>
+        <v>2.961145673054694e-09</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>40675284618.76578</v>
+        <v>2200.330466342492</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>2.961145673054694e-09</v>
+        <v>0.0001227609046423859</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>2200.330466342492</v>
+        <v>11.38570677166331</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001227609046423859</v>
+        <v>1.093585436176525</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>11.38570677166331</v>
+        <v>0.01591402623512055</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.093585436176525</v>
+        <v>4.350976057593732</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01591402623512055</v>
+        <v>0.9586620447807527</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>4.350976057593732</v>
+        <v>0.8714535531331694</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9586620447807527</v>
+        <v>251</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.8714535531331694</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>251</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>4.718029313513238</v>
       </c>
     </row>
@@ -8468,72 +8306,66 @@
         <v>3.082038125393232e-09</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.08213522973809234</v>
+        <v>1.107580217240147e-08</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.6996823627804098</v>
+        <v>8.168497000951394e-07</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.107580217240147e-08</v>
+        <v>-0.02048157156437913</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>8.168497000951394e-07</v>
+        <v>0.1299995387029917</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.02048157156437913</v>
+        <v>0.0173187774123377</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1299995387029917</v>
+        <v>1.935287887231953</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.0173187774123377</v>
+        <v>3.403790038712752</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.969831050235822</v>
+        <v>7.946436230699205</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>3.403790038712752</v>
+        <v>1.136964313886068e-18</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>7.946436230699205</v>
+        <v>47641209601.94698</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.136964313886068e-18</v>
+        <v>2.526465141752776e-09</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>47641209601.94698</v>
+        <v>2580.550680874536</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>2.526465141752776e-09</v>
+        <v>0.0001162754630489462</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>2580.550680874536</v>
+        <v>10.03256822149122</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001162754630489462</v>
+        <v>1.195194110344811</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.03256822149122</v>
+        <v>0.01170340733769664</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.195194110344811</v>
+        <v>4.509073704249565</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01170340733769664</v>
+        <v>0.9590479818462203</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>4.509073704249565</v>
+        <v>0.8868254716254795</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9590479818462203</v>
+        <v>290</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.8868254716254795</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>290</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>4.640071325547204</v>
       </c>
     </row>
@@ -8548,72 +8380,66 @@
         <v>3.152931354166234e-09</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.0528158472117542</v>
+        <v>1.121633301105553e-08</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.7509164947327314</v>
+        <v>8.167873388554139e-07</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.121633301105553e-08</v>
+        <v>-0.01979415271965639</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>8.167873388554139e-07</v>
+        <v>0.1270034634217162</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.01979415271965639</v>
+        <v>0.01652145751261196</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1270034634217162</v>
+        <v>1.939116908049399</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01652145751261196</v>
+        <v>3.556077315638235</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.97092583064397</v>
+        <v>5.605066313539069</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>3.556077315638235</v>
+        <v>1.152853104192595e-18</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>5.605066313539069</v>
+        <v>45104749810.89294</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.152853104192595e-18</v>
+        <v>2.665052364761478e-09</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>45104749810.89294</v>
+        <v>2345.408688715705</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.665052364761478e-09</v>
+        <v>0.0001030095741056335</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>2345.408688715705</v>
+        <v>8.339803874771922</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001030095741056335</v>
+        <v>1.367831262074411</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.339803874771922</v>
+        <v>0.007164555754316798</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.367831262074411</v>
+        <v>4.819241666879587</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.007164555754316798</v>
+        <v>0.9563197204695265</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>4.819241666879587</v>
+        <v>0.8781885238336342</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9563197204695265</v>
+        <v>273</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.8781885238336342</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>273</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>4.938294999968832</v>
       </c>
     </row>
@@ -8628,72 +8454,66 @@
         <v>3.224788475009647e-09</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.02578069863276825</v>
+        <v>1.139632149372958e-08</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.7999696965087262</v>
+        <v>8.167241358255898e-07</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.139632149372958e-08</v>
+        <v>-0.0198793065849641</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>8.167241358255898e-07</v>
+        <v>0.124258840090986</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.0198793065849641</v>
+        <v>0.01583531673668863</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.124258840090986</v>
+        <v>1.934887967745494</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01583531673668863</v>
+        <v>3.578283910279947</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.969798361998484</v>
+        <v>5.62650252874457</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>3.578283910279947</v>
+        <v>1.144085408493257e-18</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>5.62650252874457</v>
+        <v>45653010701.22375</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.144085408493257e-18</v>
+        <v>2.631327138333895e-09</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>45653010701.22375</v>
+        <v>2384.499817840836</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.631327138333895e-09</v>
+        <v>9.596716412354772e-05</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>2384.499817840836</v>
+        <v>7.907777981753923</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>9.596716412354772e-05</v>
+        <v>1.371563975439077</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>7.907777981753923</v>
+        <v>0.00600111012613031</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.371563975439077</v>
+        <v>4.853988829474019</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.00600111012613031</v>
+        <v>0.9562893588279281</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>4.853988829474019</v>
+        <v>0.8918270832861289</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9562893588279281</v>
+        <v>269</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.8918270832861289</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>269</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>4.837326480648281</v>
       </c>
     </row>
@@ -8708,72 +8528,66 @@
         <v>3.297875419453485e-09</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.001991191063871207</v>
+        <v>1.152795041342934e-08</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.8486309453100902</v>
+        <v>8.166591038557558e-07</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.152795041342934e-08</v>
+        <v>-0.02005314973065621</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>8.166591038557558e-07</v>
+        <v>0.1215072850410617</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.02005314973065621</v>
+        <v>0.01516611976686959</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1215072850410617</v>
+        <v>1.933575083147077</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01516611976686959</v>
+        <v>3.613445908905878</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.966719214033065</v>
+        <v>5.724554651514454</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>3.613445908905878</v>
+        <v>1.105228490865595e-18</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>5.724554651514454</v>
+        <v>47021697721.48287</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.105228490865595e-18</v>
+        <v>2.552440213697797e-09</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>47021697721.48287</v>
+        <v>2443.704465011011</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.552440213697797e-09</v>
+        <v>9.301425839387769e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>2443.704465011011</v>
+        <v>8.987592005733717</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>9.301425839387769e-05</v>
+        <v>1.2063673781214</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>8.987592005733717</v>
+        <v>0.007513395083296202</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.2063673781214</v>
+        <v>4.677405010284833</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.007513395083296202</v>
+        <v>0.9563587783884996</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>4.677405010284833</v>
+        <v>0.9128897700608238</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9563587783884996</v>
+        <v>245</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.9128897700608238</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>245</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>4.757053168577798</v>
       </c>
     </row>
@@ -8788,72 +8602,66 @@
         <v>3.371282251946464e-09</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.01561757462042574</v>
+        <v>1.157909740841611e-08</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.9003885675913739</v>
+        <v>8.165912857672185e-07</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.157909740841611e-08</v>
+        <v>-0.02071726296506708</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>8.165912857672185e-07</v>
+        <v>0.1184818769539671</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.02071726296506708</v>
+        <v>0.01446673292742074</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1184818769539671</v>
+        <v>1.932062627428918</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01446673292742074</v>
+        <v>3.53016795950825</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.965456753158168</v>
+        <v>5.66975453059637</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>3.53016795950825</v>
+        <v>1.126696564431433e-18</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>5.66975453059637</v>
+        <v>46249568604.14336</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.126696564431433e-18</v>
+        <v>2.595709303925975e-09</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>46249568604.14336</v>
+        <v>2410.029410232556</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.595709303925975e-09</v>
+        <v>9.385920609348563e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>2410.029410232556</v>
+        <v>8.877692066349208</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>9.385920609348563e-05</v>
+        <v>1.21745659190071</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.877692066349208</v>
+        <v>0.007397364695158243</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.21745659190071</v>
+        <v>4.584747946419058</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.007397364695158243</v>
+        <v>0.9577054998829548</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>4.584747946419058</v>
+        <v>0.9170381096660022</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9577054998829548</v>
+        <v>213</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.9170381096660022</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>213</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>4.531478938865746</v>
       </c>
     </row>
@@ -8868,72 +8676,66 @@
         <v>3.442740404034602e-09</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.02199355351963198</v>
+        <v>1.157909740841611e-08</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.9592155633531156</v>
+        <v>8.165192346401832e-07</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.157909740841611e-08</v>
+        <v>-0.02143048137953849</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>8.165192346401832e-07</v>
+        <v>0.115081789536579</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.02143048137953849</v>
+        <v>0.01370133350780334</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.115081789536579</v>
+        <v>1.923422574202232</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01370133350780334</v>
+        <v>3.495682872643124</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.957672974291507</v>
+        <v>5.779737181266217</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>3.495682872643124</v>
+        <v>1.644992716365401e-18</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>5.779737181266217</v>
+        <v>31910421552.23781</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.644992716365401e-18</v>
+        <v>3.756151855523287e-09</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>31910421552.23781</v>
+        <v>1675.054964247258</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>3.756151855523287e-09</v>
+        <v>9.387838679351749e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>1675.054964247258</v>
+        <v>8.298572849452347</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>9.387838679351749e-05</v>
+        <v>1.302816986725293</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.298572849452347</v>
+        <v>0.006465058212800361</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.302816986725293</v>
+        <v>4.700752945126093</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.006465058212800361</v>
+        <v>0.9587845811668396</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>4.700752945126093</v>
+        <v>0.935068759798154</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9587845811668396</v>
+        <v>202</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.935068759798154</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>202</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>4.575697999459052</v>
       </c>
     </row>
@@ -8948,72 +8750,66 @@
         <v>3.505354038093997e-09</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.01127489656057231</v>
+        <v>1.157909740841611e-08</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.024281145352478</v>
+        <v>8.164447522705709e-07</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.157909740841611e-08</v>
+        <v>-0.0212153739829529</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>8.164447522705709e-07</v>
+        <v>0.1128244564280631</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.0212153739829529</v>
+        <v>0.01317636010060933</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1128244564280631</v>
+        <v>1.922816386961179</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.01317636010060933</v>
+        <v>3.324674443444811</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.959702065386319</v>
+        <v>5.372682153022714</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>3.324674443444811</v>
+        <v>1.903697164957665e-18</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>5.372682153022714</v>
+        <v>27766156183.69499</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.903697164957665e-18</v>
+        <v>4.320483153444694e-09</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>27766156183.69499</v>
+        <v>1467.673279698437</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>4.320483153444694e-09</v>
+        <v>9.36649774492482e-05</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>1467.673279698437</v>
+        <v>8.331967903769279</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>9.36649774492482e-05</v>
+        <v>1.295907278677449</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.331967903769279</v>
+        <v>0.006502380948671151</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.295907278677449</v>
+        <v>4.786370706229556</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.006502380948671151</v>
+        <v>0.9598502609770044</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>4.786370706229556</v>
+        <v>0.977805864353527</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9598502609770044</v>
+        <v>200</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>0.977805864353527</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>4.686052352919205</v>
       </c>
     </row>
@@ -9028,72 +8824,66 @@
         <v>3.553800027737329e-09</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.01555019031342574</v>
+        <v>1.157909740841611e-08</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.085302315141491</v>
+        <v>8.163713896201937e-07</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.157909740841611e-08</v>
+        <v>-0.02034229923720106</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>8.163713896201937e-07</v>
+        <v>0.1121438050509888</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.02034229923720106</v>
+        <v>0.01298828278396625</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1121438050509888</v>
+        <v>1.923388105149678</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.01298828278396625</v>
+        <v>2.757597990726781</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.954891883636774</v>
+        <v>6.641258385283669</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>2.757597990726781</v>
+        <v>2.294378178276693e-18</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>6.641258385283669</v>
+        <v>23570612211.57704</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>2.294378178276693e-18</v>
+        <v>5.109402558484545e-09</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>23570612211.57704</v>
+        <v>1274.696311432625</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>5.109402558484545e-09</v>
+        <v>8.62784000465631e-05</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>1274.696311432625</v>
+        <v>9.441270115879798</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>8.62784000465631e-05</v>
+        <v>1.22240556594439</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>9.441270115879798</v>
+        <v>0.007690647907298986</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.22240556594439</v>
+        <v>4.819210625543695</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.007690647907298986</v>
+        <v>0.9619016354686942</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>4.819210625543695</v>
+        <v>1.058883207753274</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9619016354686942</v>
+        <v>207</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.058883207753274</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>207</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>4.964026204535876</v>
       </c>
     </row>
@@ -9108,72 +8898,66 @@
         <v>3.591309382671159e-09</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.05166187420226647</v>
+        <v>1.157909740841611e-08</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.135040715852001</v>
+        <v>8.162986554795711e-07</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.157909740841611e-08</v>
+        <v>-0.02060661040637294</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>8.162986554795711e-07</v>
+        <v>0.1105684962633977</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.02060661040637294</v>
+        <v>0.01264935631278692</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1105684962633977</v>
+        <v>1.931383253192663</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.01264935631278692</v>
+        <v>2.916563140389947</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.957872097143423</v>
+        <v>5.658559916246769</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>2.916563140389947</v>
+        <v>3.160486359928754e-18</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>5.658559916246769</v>
+        <v>17318809811.32846</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>3.160486359928754e-18</v>
+        <v>6.95217990375582e-09</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>17318809811.32846</v>
+        <v>947.9599869355224</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>6.95217990375582e-09</v>
+        <v>9.340319872903074e-05</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>947.9599869355224</v>
+        <v>7.858897358540773</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>9.340319872903074e-05</v>
+        <v>1.357551971139115</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>7.858897358540773</v>
+        <v>0.005768793363198863</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.357551971139115</v>
+        <v>4.56459740227515</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.005768793363198863</v>
+        <v>0.9610119311066867</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>4.56459740227515</v>
+        <v>1.105567529883865</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9610119311066867</v>
+        <v>205</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.105567529883865</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>205</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>3.510306048002975</v>
       </c>
     </row>
@@ -9188,72 +8972,66 @@
         <v>3.623875198081405e-09</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.09337175457584149</v>
+        <v>1.157909740841611e-08</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.1742648931604</v>
+        <v>8.162218381254663e-07</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.157909740841611e-08</v>
+        <v>-0.02204839362530944</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>8.162218381254663e-07</v>
+        <v>0.1085437202521621</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.02204839362530944</v>
+        <v>0.01226737693025002</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1085437202521621</v>
+        <v>1.933817492203314</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.01226737693025002</v>
+        <v>3.041646634838321</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.958638060486708</v>
+        <v>5.505882124227279</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>3.041646634838321</v>
+        <v>3.338196821885474e-18</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>5.505882124227279</v>
+        <v>16323292963.19753</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>3.338196821885474e-18</v>
+        <v>7.370555488585786e-09</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>16323292963.19753</v>
+        <v>889.4621865463614</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>7.370555488585786e-09</v>
+        <v>0.000109119642005674</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>889.4621865463614</v>
+        <v>7.318530395859741</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.000109119642005674</v>
+        <v>1.448780111264874</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>7.318530395859741</v>
+        <v>0.005844544831873318</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.448780111264874</v>
+        <v>4.06512048457238</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.005844544831873318</v>
+        <v>0.9606395954990566</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>4.06512048457238</v>
+        <v>1.13933599969943</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9606395954990566</v>
+        <v>192</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.13933599969943</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>192</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>2.172073582308591</v>
       </c>
     </row>
@@ -9268,72 +9046,66 @@
         <v>3.653749793344952e-09</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.1395091100249358</v>
+        <v>1.157909740841611e-08</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.203372510747739</v>
+        <v>8.161385590982842e-07</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.157909740841611e-08</v>
+        <v>-0.02373421896413403</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>8.161385590982842e-07</v>
+        <v>0.1066121541491855</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.02373421896413403</v>
+        <v>0.01192878146044673</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1066121541491855</v>
+        <v>1.943263263023739</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.01192878146044673</v>
+        <v>2.769287723981958</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.965538847249155</v>
+        <v>5.514643451219071</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.769287723981958</v>
+        <v>3.327598203413783e-18</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>5.514643451219071</v>
+        <v>16632744762.34454</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>3.327598203413783e-18</v>
+        <v>7.257820300341227e-09</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>16632744762.34454</v>
+        <v>920.5740477382375</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>7.257820300341227e-09</v>
+        <v>0.0001146697414968571</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>920.5740477382375</v>
+        <v>8.193428819323399</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001146697414968571</v>
+        <v>1.239273713034035</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>8.193428819323399</v>
+        <v>0.007698040714067708</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.239273713034035</v>
+        <v>3.732582315879474</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.007698040714067708</v>
+        <v>0.9589717126804425</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.732582315879474</v>
+        <v>1.12419327374132</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9589717126804425</v>
+        <v>211</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.12419327374132</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>1.778162072840182</v>
       </c>
     </row>
@@ -9710,7 +9482,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.355966957763845</v>
+        <v>1.339790624197903</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.218451001678901</v>
@@ -9799,7 +9571,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.390941169835422</v>
+        <v>1.370788781451959</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.13607932844254</v>
@@ -9888,7 +9660,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.424780260215534</v>
+        <v>1.396399602630552</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.015252800422332</v>
@@ -9977,7 +9749,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.456949852499842</v>
+        <v>1.420285698598259</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.354105569136488</v>
@@ -10066,7 +9838,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.479071177086093</v>
+        <v>1.447593334878093</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.237398812824566</v>
@@ -10155,7 +9927,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.524163213797182</v>
+        <v>1.488971559301175</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.305183314565514</v>
@@ -10244,7 +10016,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.547006443527076</v>
+        <v>1.507269879192841</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.039993165832088</v>
@@ -10333,7 +10105,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.568095636167688</v>
+        <v>1.525524739711693</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.202897194770971</v>
@@ -10422,7 +10194,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.567114556592091</v>
+        <v>1.530286862500412</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.17417579151493</v>
@@ -10511,7 +10283,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.578342520461706</v>
+        <v>1.544479176531933</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.204757919682174</v>
@@ -10600,7 +10372,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.58766345930073</v>
+        <v>1.551106553490953</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.313795174527186</v>
@@ -10689,7 +10461,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.583890390345145</v>
+        <v>1.539296655977104</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.315008968992676</v>
@@ -10778,7 +10550,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.550049448986381</v>
+        <v>1.526284765470505</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.247423830008881</v>
@@ -10867,7 +10639,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.514807742382142</v>
+        <v>1.497942258244681</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.32276210864405</v>
@@ -10956,7 +10728,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.558587714616213</v>
+        <v>1.543503946847</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.37860404718784</v>
@@ -11045,7 +10817,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.548571517538502</v>
+        <v>1.522861697298056</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.21921110978962</v>
@@ -11134,7 +10906,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.499982802686239</v>
+        <v>1.49340633825825</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.260251264589956</v>
@@ -11223,7 +10995,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.472033554975486</v>
+        <v>1.469819618857273</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.272119193172502</v>
@@ -11312,7 +11084,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.447885531563181</v>
+        <v>1.449510071041214</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.192297125239781</v>
@@ -11401,7 +11173,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.445574179009846</v>
+        <v>1.445573310475275</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.331045457519966</v>
@@ -11490,7 +11262,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.437533082980033</v>
+        <v>1.436687684920382</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.260457721950999</v>
@@ -11579,7 +11351,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.432712791815592</v>
+        <v>1.435643021390849</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.259206947853115</v>
@@ -11668,7 +11440,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.433452604150436</v>
+        <v>1.436762880125328</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.315200395633997</v>
@@ -11757,7 +11529,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.408773949168638</v>
+        <v>1.413383353400203</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.266427339820931</v>
@@ -11846,7 +11618,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.409599741114834</v>
+        <v>1.416926438825303</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.336411939458406</v>
@@ -11935,7 +11707,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.402413621772255</v>
+        <v>1.408693409555963</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.354068572871789</v>
@@ -12024,7 +11796,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.432602689604468</v>
+        <v>1.441539740602302</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.167099062641307</v>
@@ -12113,7 +11885,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.4312582872554</v>
+        <v>1.439381240033661</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.497660966331138</v>
@@ -12202,7 +11974,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.454885185453859</v>
+        <v>1.458209279756503</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.424960841696978</v>
@@ -12291,7 +12063,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.449026224209795</v>
+        <v>1.445910335696778</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.340101734349412</v>
@@ -12380,7 +12152,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.483895155480179</v>
+        <v>1.474849649410755</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.107708486530576</v>
@@ -12469,7 +12241,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.504545735694655</v>
+        <v>1.493727339213033</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.377014805002162</v>
@@ -12558,7 +12330,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.533191679878538</v>
+        <v>1.519724686700961</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.272940158919261</v>
@@ -12647,7 +12419,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.582380039095211</v>
+        <v>1.559019575790208</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.447112904342338</v>
@@ -12736,7 +12508,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.536731001691195</v>
+        <v>1.519187785427328</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.371378075313349</v>
@@ -12825,7 +12597,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.535618346508101</v>
+        <v>1.51553026846179</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.229906775706572</v>
@@ -12914,7 +12686,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.535114448267673</v>
+        <v>1.514765912327904</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.25690431374979</v>
@@ -13003,7 +12775,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.539081454922551</v>
+        <v>1.514394258491076</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.321643856816208</v>
@@ -13092,7 +12864,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.589698272531739</v>
+        <v>1.556533908674338</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.292870142514619</v>
@@ -13181,7 +12953,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.567301073585889</v>
+        <v>1.537813679361225</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.296900089425972</v>
@@ -13270,7 +13042,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.556006872574545</v>
+        <v>1.530197642654151</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.23518426312998</v>
@@ -13359,7 +13131,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.558721389832439</v>
+        <v>1.530350277125448</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.362604784077439</v>
@@ -13448,7 +13220,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.574497102190191</v>
+        <v>1.537811215493173</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.301785619074947</v>
@@ -13537,7 +13309,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.569605797047673</v>
+        <v>1.535347010573271</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.334125913102563</v>
@@ -13626,7 +13398,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.568139298324458</v>
+        <v>1.531411259527293</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.399049310845192</v>
@@ -13715,7 +13487,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.5309223649387</v>
+        <v>1.497721848150918</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.375918983824521</v>
@@ -13804,7 +13576,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.526419177699267</v>
+        <v>1.498611488827453</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.465931618812548</v>
@@ -13893,7 +13665,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.53416488886442</v>
+        <v>1.505762898729692</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.367655529219471</v>
@@ -13982,7 +13754,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.537774063229574</v>
+        <v>1.507793070006851</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.340477503150563</v>
@@ -14071,7 +13843,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.5897876900502</v>
+        <v>1.552979480040887</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.147755168816206</v>
@@ -14160,7 +13932,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.552903149194188</v>
+        <v>1.52685570921334</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.401731813862992</v>
@@ -14249,7 +14021,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.558239801427667</v>
+        <v>1.532892622675655</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.327008528252361</v>
@@ -14338,7 +14110,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.520681798328383</v>
+        <v>1.504827041090195</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.286982000447219</v>
@@ -14427,7 +14199,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.52016309639491</v>
+        <v>1.502203427639553</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.309926373566115</v>
@@ -14516,7 +14288,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.512827092373954</v>
+        <v>1.484924556201753</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.362336057213136</v>
@@ -14605,7 +14377,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.518270853259488</v>
+        <v>1.494020259548107</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.350903148275928</v>
@@ -14694,7 +14466,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.521278676469367</v>
+        <v>1.494612582609717</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.381909773809628</v>
@@ -14783,7 +14555,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.484895649022469</v>
+        <v>1.455765268595443</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.327230324641312</v>
@@ -14872,7 +14644,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.464092525340455</v>
+        <v>1.445866978958829</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.388668523962874</v>
@@ -14961,7 +14733,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.465220584355883</v>
+        <v>1.445886653266322</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.258579421049885</v>
@@ -15050,7 +14822,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.480282705887482</v>
+        <v>1.45636381099462</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.106360491060763</v>
@@ -15139,7 +14911,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.479569752918187</v>
+        <v>1.452606672298351</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.270931824926381</v>
@@ -15228,7 +15000,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.478984067796422</v>
+        <v>1.451400200230957</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.325495646382408</v>
@@ -15317,7 +15089,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.471375124486682</v>
+        <v>1.442451569158586</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.383292242647065</v>
@@ -15406,7 +15178,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.470164914189174</v>
+        <v>1.443136260178912</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.419988119698549</v>
@@ -15495,7 +15267,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.506280877314776</v>
+        <v>1.474808685428207</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.431822180146335</v>
@@ -15584,7 +15356,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.456581349342952</v>
+        <v>1.435187277551639</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.367880388289632</v>
@@ -15673,7 +15445,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.467586239521801</v>
+        <v>1.446730499956417</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.32937124519168</v>
@@ -15762,7 +15534,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.497294236133122</v>
+        <v>1.474589141629101</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.281896235072165</v>
@@ -15851,7 +15623,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.514353573091562</v>
+        <v>1.494198877761295</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.323969653137272</v>
@@ -15940,7 +15712,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.480451502593387</v>
+        <v>1.4607901612693</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.342131567659783</v>
@@ -16029,7 +15801,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.4983170958783</v>
+        <v>1.471597601544945</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.130396056211222</v>
@@ -16118,7 +15890,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.50951954223707</v>
+        <v>1.488896643198623</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.256295201289168</v>
@@ -16207,7 +15979,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.516845584634964</v>
+        <v>1.50059022934473</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.353532653611297</v>
@@ -16296,7 +16068,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.522184425992867</v>
+        <v>1.509640292537291</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.353569160984666</v>
@@ -16385,7 +16157,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.532213524245733</v>
+        <v>1.520765756743689</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.33748597280624</v>
@@ -16474,7 +16246,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.532880161815199</v>
+        <v>1.518472390276771</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.393816563799704</v>
@@ -16563,7 +16335,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.536546982542532</v>
+        <v>1.521882611180555</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.490975381395061</v>
@@ -16652,7 +16424,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.529191111978525</v>
+        <v>1.516364005423715</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.303935713418051</v>
@@ -16741,7 +16513,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.512805777039158</v>
+        <v>1.498341408261918</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.422874140232856</v>
@@ -16830,7 +16602,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.476426910894078</v>
+        <v>1.46246952595444</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.232175199850986</v>
@@ -17116,7 +16888,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.405161870351324</v>
+        <v>1.377999102287847</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.004320212551428</v>
@@ -17205,7 +16977,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.419379681011113</v>
+        <v>1.389075812727695</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.032982698457866</v>
@@ -17294,7 +17066,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.440197467454402</v>
+        <v>1.394974596028678</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.268181078747355</v>
@@ -17383,7 +17155,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.453566210607063</v>
+        <v>1.412938733729086</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.53719658830626</v>
@@ -17472,7 +17244,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.426503023375642</v>
+        <v>1.392753444069126</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.473671476001528</v>
@@ -17561,7 +17333,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.426308855338887</v>
+        <v>1.397631973467395</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.349804637299836</v>
@@ -17650,7 +17422,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.445257292321918</v>
+        <v>1.410184989737218</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.379396534726361</v>
@@ -17739,7 +17511,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.453684715706234</v>
+        <v>1.422357956362483</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.411001392023082</v>
@@ -17828,7 +17600,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.468960137369727</v>
+        <v>1.432646998495089</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.396771702063951</v>
@@ -17917,7 +17689,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.488710958366736</v>
+        <v>1.458508043020025</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.470249539505086</v>
@@ -18006,7 +17778,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.49752221533735</v>
+        <v>1.467297372803969</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.27418694104866</v>
@@ -18095,7 +17867,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.49856195505587</v>
+        <v>1.471080923720591</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.356553147803545</v>
@@ -18184,7 +17956,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.48177749845947</v>
+        <v>1.453300221054394</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.432312479492762</v>
@@ -18273,7 +18045,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.452348463203052</v>
+        <v>1.42382769000041</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.43088229910811</v>
@@ -18362,7 +18134,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.449067270575878</v>
+        <v>1.425070058150383</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.294090696230333</v>
@@ -18451,7 +18223,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.442517465138059</v>
+        <v>1.411255684288135</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.505451166217322</v>
@@ -18540,7 +18312,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.441370114383252</v>
+        <v>1.417385043209337</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.431993168718851</v>
@@ -18629,7 +18401,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.447283819499836</v>
+        <v>1.424308782860121</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.417464520441286</v>
@@ -18718,7 +18490,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.452010539976136</v>
+        <v>1.424755569473231</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.432269807721689</v>
@@ -18807,7 +18579,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.498209680825159</v>
+        <v>1.459740821553619</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.421645879054596</v>
@@ -18896,7 +18668,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.498457432725346</v>
+        <v>1.457784818079001</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.582488701456925</v>
@@ -18985,7 +18757,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.485381887072084</v>
+        <v>1.453436718614031</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.554542892366154</v>
@@ -19074,7 +18846,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.477265308693252</v>
+        <v>1.44613167000862</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.57514783693884</v>
@@ -19163,7 +18935,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.461588287875671</v>
+        <v>1.431002411417882</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.635934648200256</v>
@@ -19252,7 +19024,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.458702548602481</v>
+        <v>1.42950894586217</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.589916652213267</v>
@@ -19341,7 +19113,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.459297301257431</v>
+        <v>1.43494627059859</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.594323552496825</v>
@@ -19430,7 +19202,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.471212601633497</v>
+        <v>1.446804748321707</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.466525039858197</v>
@@ -19519,7 +19291,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.482653439913835</v>
+        <v>1.454967248474541</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.546095863991689</v>
@@ -19608,7 +19380,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.504990338670195</v>
+        <v>1.477968668914662</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.285309815326812</v>
@@ -19697,7 +19469,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.500586174894088</v>
+        <v>1.46456913950121</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.532247302356172</v>
@@ -19786,7 +19558,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.467020481270218</v>
+        <v>1.441496683937165</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.520512579284479</v>
@@ -19875,7 +19647,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.403373408766985</v>
+        <v>1.386676559402779</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.265270656929422</v>
@@ -19964,7 +19736,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.367745623119647</v>
+        <v>1.354976761984544</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.106212039779088</v>
@@ -20053,7 +19825,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.322980642576822</v>
+        <v>1.310468659883159</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.167560781691225</v>
@@ -20142,7 +19914,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.287951742682707</v>
+        <v>1.278419058877439</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.153775378747918</v>
@@ -20231,7 +20003,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.288120610999526</v>
+        <v>1.279566663602403</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.010845344242884</v>
@@ -20320,7 +20092,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.258085545677261</v>
+        <v>1.24703601402374</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.040463884374416</v>
@@ -20409,7 +20181,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.256677572887855</v>
+        <v>1.245843916430901</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.105904708705217</v>
@@ -20498,7 +20270,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.258870936640092</v>
+        <v>1.24757962676844</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.098742772565435</v>
@@ -20587,7 +20359,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.252725628712636</v>
+        <v>1.239633993642932</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.079653365048419</v>
@@ -20676,7 +20448,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.246313174252808</v>
+        <v>1.232126853268189</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.050874231221048</v>
@@ -20765,7 +20537,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.248604655200195</v>
+        <v>1.236923804056483</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.047322248408429</v>
@@ -20854,7 +20626,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.246353616095341</v>
+        <v>1.233912104896743</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.029432128754811</v>
@@ -20943,7 +20715,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.247224011890779</v>
+        <v>1.232273328398032</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.00304986009799</v>
@@ -21032,7 +20804,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.248462363269888</v>
+        <v>1.234869298009789</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.013495712471482</v>
@@ -21121,7 +20893,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.267957457201774</v>
+        <v>1.247328584966143</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.98472908645363</v>
@@ -21210,7 +20982,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.288904570190443</v>
+        <v>1.268410593785278</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.937620579071774</v>
@@ -21299,7 +21071,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.331012475744351</v>
+        <v>1.306085054652764</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.86467300025934</v>
@@ -21388,7 +21160,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.355843520070269</v>
+        <v>1.332371448077796</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.898938404766115</v>
@@ -21477,7 +21249,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.408919362192849</v>
+        <v>1.382937046076238</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.847907911802983</v>
@@ -21566,7 +21338,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.413445901560582</v>
+        <v>1.386928000393859</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.015878929686296</v>
@@ -21655,7 +21427,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.491188651929224</v>
+        <v>1.457171143676327</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.254035098341112</v>
@@ -21744,7 +21516,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.430897478912669</v>
+        <v>1.409213810063728</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.882091671710384</v>
@@ -21833,7 +21605,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.426705730687975</v>
+        <v>1.411739568024378</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.877074447637443</v>
@@ -21922,7 +21694,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.439479496617387</v>
+        <v>1.423231773357257</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.850054597620134</v>
@@ -22011,7 +21783,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.436037023146497</v>
+        <v>1.419192111509639</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.881255352320455</v>
@@ -22100,7 +21872,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.437090641926512</v>
+        <v>1.417904809469275</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.903506823356337</v>
@@ -22189,7 +21961,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.431875649330929</v>
+        <v>1.409520394110936</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.885580925121243</v>
@@ -22278,7 +22050,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.425128376052723</v>
+        <v>1.40451132562561</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.871532182918785</v>
@@ -22367,7 +22139,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.4269653870539</v>
+        <v>1.402613736630827</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.89128452003454</v>
@@ -22456,7 +22228,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.428824222074934</v>
+        <v>1.402927636944149</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.813014601138571</v>
@@ -22545,7 +22317,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.428499367975495</v>
+        <v>1.398422825184758</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.851370725889499</v>
@@ -22634,7 +22406,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.450183600170648</v>
+        <v>1.417106275966473</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.859018902166027</v>
@@ -22723,7 +22495,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.447437572512782</v>
+        <v>1.409815983384313</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.88459105059175</v>
@@ -22812,7 +22584,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.450717694643513</v>
+        <v>1.412700985609465</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.872788875529548</v>
@@ -22901,7 +22673,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.461401332687225</v>
+        <v>1.425559043906729</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.860099065730948</v>
@@ -22990,7 +22762,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.452665813184716</v>
+        <v>1.407820244860039</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.913780359323752</v>
@@ -23079,7 +22851,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.516242980701191</v>
+        <v>1.461792433127294</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.717753619441846</v>
@@ -23168,7 +22940,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.514601895487753</v>
+        <v>1.4671863383266</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.474589874887978</v>
@@ -23257,7 +23029,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.523557770409854</v>
+        <v>1.477493709109265</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.450628457429307</v>
@@ -23346,7 +23118,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.529099315425609</v>
+        <v>1.487937455049829</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.504278621434869</v>
@@ -23435,7 +23207,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.541650736906692</v>
+        <v>1.496861383696797</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.378065475633301</v>
@@ -23524,7 +23296,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.547142971355448</v>
+        <v>1.511891617065932</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.467221633103853</v>
@@ -23613,7 +23385,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.557019521626552</v>
+        <v>1.525594865282873</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.541910921592073</v>
@@ -23702,7 +23474,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.57327770978097</v>
+        <v>1.547758263652015</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.596761116439745</v>
@@ -23791,7 +23563,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.585888606100066</v>
+        <v>1.564905528825987</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.544445794804588</v>
@@ -23880,7 +23652,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.596774909528003</v>
+        <v>1.577462496131615</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.553747424150896</v>
@@ -23969,7 +23741,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.599855172828841</v>
+        <v>1.582257378686706</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.509420606256877</v>
@@ -24058,7 +23830,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.612502536973764</v>
+        <v>1.596972696091106</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.627622082345107</v>
@@ -24147,7 +23919,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.605712638684959</v>
+        <v>1.591845803476209</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.593559843730312</v>
@@ -24236,7 +24008,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.585103269839979</v>
+        <v>1.572804737860051</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.437615490154006</v>
@@ -24522,7 +24294,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.448769216716195</v>
+        <v>1.426638311398145</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.092605591897558</v>
@@ -24611,7 +24383,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.461121125494138</v>
+        <v>1.433542298506787</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.05853531375678</v>
@@ -24700,7 +24472,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.522267336314434</v>
+        <v>1.476301569603737</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.598973768051521</v>
@@ -24789,7 +24561,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.564993958075844</v>
+        <v>1.511927976103848</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.63758120675197</v>
@@ -24878,7 +24650,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.57260200942211</v>
+        <v>1.51446294847066</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.674905194443275</v>
@@ -24967,7 +24739,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.584312446157245</v>
+        <v>1.519165225781338</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.952616227303108</v>
@@ -25056,7 +24828,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.591385364730427</v>
+        <v>1.521290179050001</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.115013405555335</v>
@@ -25145,7 +24917,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.589139362250675</v>
+        <v>1.524369783778173</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.142253199090451</v>
@@ -25234,7 +25006,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.590228192338262</v>
+        <v>1.53008109117197</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.205687433209249</v>
@@ -25323,7 +25095,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.60769509667038</v>
+        <v>1.548299830441379</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.029542257196034</v>
@@ -25412,7 +25184,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.624634425990719</v>
+        <v>1.558946813387428</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.20198302103405</v>
@@ -25501,7 +25273,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.62828726490729</v>
+        <v>1.556907792969122</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.058330862883992</v>
@@ -25590,7 +25362,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.617508081226689</v>
+        <v>1.549475158583763</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.042981034413019</v>
@@ -25679,7 +25451,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.615902958813314</v>
+        <v>1.540468214172435</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.068369778396096</v>
@@ -25768,7 +25540,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.613800038873375</v>
+        <v>1.548717304996981</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.517707963481512</v>
@@ -25857,7 +25629,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.613623254220816</v>
+        <v>1.547389817266019</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.59688454970541</v>
@@ -25946,7 +25718,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.608395761569502</v>
+        <v>1.547854922707429</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.717422080078406</v>
@@ -26035,7 +25807,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.598033299440948</v>
+        <v>1.542246087108284</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.606754252025742</v>
@@ -26124,7 +25896,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.593627004639188</v>
+        <v>1.535411995480662</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.636747051398046</v>
@@ -26213,7 +25985,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.597584998301002</v>
+        <v>1.534994872706992</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.607411471712019</v>
@@ -26302,7 +26074,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.593476849235701</v>
+        <v>1.531226595398568</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.72533504166123</v>
@@ -26391,7 +26163,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.591533312856707</v>
+        <v>1.537714632975634</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.646881500459144</v>
@@ -26480,7 +26252,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.59413978521413</v>
+        <v>1.538589178911243</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.651979490116167</v>
@@ -26569,7 +26341,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.571850474048074</v>
+        <v>1.519657698543286</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.725063714540705</v>
@@ -26658,7 +26430,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.576042287686119</v>
+        <v>1.524515151087326</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.642599129684182</v>
@@ -26747,7 +26519,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.554380874680632</v>
+        <v>1.515869040309209</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.619811709019346</v>
@@ -26836,7 +26608,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.560505154504003</v>
+        <v>1.52278079714954</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.615329556998647</v>
@@ -26925,7 +26697,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.560375552054545</v>
+        <v>1.529250813230894</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.62825133172463</v>
@@ -27014,7 +26786,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.571505052767635</v>
+        <v>1.537275372134536</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.603064898266726</v>
@@ -27103,7 +26875,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.584984018882909</v>
+        <v>1.539659165698443</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.340054647628131</v>
@@ -27192,7 +26964,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.582563364664499</v>
+        <v>1.533848520498328</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.745068258493332</v>
@@ -27281,7 +27053,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.570382895889106</v>
+        <v>1.521939446907875</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.07108589086851</v>
@@ -27370,7 +27142,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.56835665131785</v>
+        <v>1.521261723100493</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.38787569707544</v>
@@ -27459,7 +27231,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.557542633937401</v>
+        <v>1.511789100715092</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.301151998137163</v>
@@ -27548,7 +27320,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.55535955122242</v>
+        <v>1.511900157418571</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.397733857480599</v>
@@ -27637,7 +27409,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.553481310608713</v>
+        <v>1.509500505047747</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.915855759796947</v>
@@ -27726,7 +27498,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.539045374561332</v>
+        <v>1.499615965063398</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.938819869599505</v>
@@ -27815,7 +27587,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.537766890465333</v>
+        <v>1.499261249189431</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.318648938937953</v>
@@ -27904,7 +27676,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.526927278461371</v>
+        <v>1.490667874021479</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.04699122484637</v>
@@ -27993,7 +27765,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.516799216699658</v>
+        <v>1.480314516162804</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.829690777212458</v>
@@ -28082,7 +27854,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.515026427973726</v>
+        <v>1.477422381641595</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.932769890952053</v>
@@ -28171,7 +27943,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.508743583494211</v>
+        <v>1.474468769344254</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.049136623879206</v>
@@ -28260,7 +28032,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.509682839839312</v>
+        <v>1.469925870020413</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.894380037774829</v>
@@ -28349,7 +28121,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.490695849262696</v>
+        <v>1.460025932185109</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.001086671318406</v>
@@ -28438,7 +28210,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.480576059834076</v>
+        <v>1.446259502111101</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.916638846260459</v>
@@ -28527,7 +28299,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.479408400258884</v>
+        <v>1.44078941048304</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.497946596775503</v>
@@ -28616,7 +28388,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.482675966128688</v>
+        <v>1.447283998473556</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.6875354016646</v>
@@ -28705,7 +28477,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.491569643806254</v>
+        <v>1.451164322927845</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.754401056454689</v>
@@ -28794,7 +28566,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.485972146456611</v>
+        <v>1.452787857984439</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.842399826291418</v>
@@ -28883,7 +28655,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.481876095907905</v>
+        <v>1.453178757200937</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.834041129460873</v>
@@ -28972,7 +28744,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.483945552375689</v>
+        <v>1.453510343065238</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.824192977405131</v>
@@ -29061,7 +28833,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.492109481692526</v>
+        <v>1.462548434252976</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.641555914579896</v>
@@ -29150,7 +28922,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.480383641194934</v>
+        <v>1.456588167513543</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.988540414789616</v>
@@ -29239,7 +29011,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.507526728549746</v>
+        <v>1.476083041938733</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.04746914827284</v>
@@ -29328,7 +29100,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.501968902708982</v>
+        <v>1.462354464986046</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.93407821152698</v>
@@ -29417,7 +29189,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.502136053060039</v>
+        <v>1.463188331579998</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.057371868181404</v>
@@ -29506,7 +29278,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.504313843755708</v>
+        <v>1.470668078896823</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.884164084173216</v>
@@ -29595,7 +29367,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.494947628459069</v>
+        <v>1.459027584095543</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.270776197472005</v>
@@ -29684,7 +29456,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.497090138055844</v>
+        <v>1.462110453252429</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.189818326310486</v>
@@ -29773,7 +29545,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.506829293957496</v>
+        <v>1.472961221089781</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.025009513225299</v>
@@ -29862,7 +29634,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.512221175771176</v>
+        <v>1.476306948700204</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.964324481513236</v>
@@ -29951,7 +29723,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.521615388242547</v>
+        <v>1.478726194993216</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.851080415765999</v>
@@ -30040,7 +29812,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.513503320832745</v>
+        <v>1.477094593278513</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.055558509639716</v>
@@ -30129,7 +29901,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.520161647516727</v>
+        <v>1.474220484220237</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.692588240285987</v>
@@ -30218,7 +29990,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.532002080091551</v>
+        <v>1.478277747767907</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.047168825498336</v>
@@ -30307,7 +30079,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.545397344641128</v>
+        <v>1.492160022493736</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.91815948087523</v>
@@ -30396,7 +30168,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.52608456831186</v>
+        <v>1.472990838413629</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.096389584023663</v>
@@ -30485,7 +30257,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.513179869580092</v>
+        <v>1.466223999811426</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.822769798535255</v>
@@ -30574,7 +30346,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.492767097994005</v>
+        <v>1.457265522117873</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.277135388292492</v>
@@ -30663,7 +30435,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.491537307381005</v>
+        <v>1.457829891503699</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.101061477731141</v>
@@ -30752,7 +30524,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.486271011696006</v>
+        <v>1.457369397557784</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.196261894251189</v>
@@ -30841,7 +30613,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.500491771700191</v>
+        <v>1.461877865860913</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.323920156381637</v>
@@ -30930,7 +30702,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.501462265916287</v>
+        <v>1.466004595133228</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.303090726799204</v>
@@ -31019,7 +30791,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.507170312026364</v>
+        <v>1.470754449584332</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.126513571422533</v>
@@ -31108,7 +30880,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.512440350815207</v>
+        <v>1.481714228840516</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.076037435345837</v>
@@ -31197,7 +30969,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.515642764549168</v>
+        <v>1.487679816318827</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.14415703596526</v>
@@ -31286,7 +31058,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.506010875856708</v>
+        <v>1.480050114794598</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.141615655994936</v>
@@ -31375,7 +31147,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.508570832269404</v>
+        <v>1.482752547191012</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.26677728752087</v>
@@ -31464,7 +31236,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.507937659912296</v>
+        <v>1.486156527637647</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.126950806508721</v>
@@ -31553,7 +31325,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.505754205038208</v>
+        <v>1.487107762995199</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.178337345842435</v>
@@ -31642,7 +31414,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.498833953036405</v>
+        <v>1.4781112178166</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.19937875662702</v>
@@ -31928,7 +31700,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.612468727468804</v>
+        <v>1.553171037867582</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.291486811294084</v>
@@ -32017,7 +31789,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.628109164849209</v>
+        <v>1.555980798905539</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.306285575715878</v>
@@ -32106,7 +31878,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.613239664325855</v>
+        <v>1.532196076500912</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.128756864897716</v>
@@ -32195,7 +31967,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.61899994821749</v>
+        <v>1.531215924497312</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.364142744392231</v>
@@ -32284,7 +32056,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.60602354647675</v>
+        <v>1.517024903593042</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.304705872231326</v>
@@ -32373,7 +32145,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.6143212023721</v>
+        <v>1.520224364874715</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.606095081999243</v>
@@ -32462,7 +32234,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.606674942877878</v>
+        <v>1.505302248283433</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.147261584125377</v>
@@ -32551,7 +32323,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.601122616250267</v>
+        <v>1.499052014565519</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.478134690752585</v>
@@ -32640,7 +32412,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.601061230201169</v>
+        <v>1.502002768039441</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.618668397167252</v>
@@ -32729,7 +32501,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.617665810479142</v>
+        <v>1.516228803347568</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.399393223845721</v>
@@ -32818,7 +32590,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.616678232281621</v>
+        <v>1.509863599403003</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.505285909672188</v>
@@ -32907,7 +32679,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.614004091961076</v>
+        <v>1.500594954172624</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.010575053654915</v>
@@ -32996,7 +32768,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.607975187641054</v>
+        <v>1.495056765137721</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.216237050053303</v>
@@ -33085,7 +32857,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.616806353249818</v>
+        <v>1.500280804771714</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.10638063208191</v>
@@ -33174,7 +32946,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.623078070100565</v>
+        <v>1.517827246353644</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.33088863802107</v>
@@ -33263,7 +33035,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.612113793659389</v>
+        <v>1.505315552044588</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.326857402822618</v>
@@ -33352,7 +33124,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.596080907784447</v>
+        <v>1.505673193906168</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.310613522277575</v>
@@ -33441,7 +33213,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.597766665141851</v>
+        <v>1.516175892841242</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.339925489878595</v>
@@ -33530,7 +33302,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.594995496205406</v>
+        <v>1.517632094666236</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.219027562516857</v>
@@ -33619,7 +33391,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.59546612139075</v>
+        <v>1.519754500033173</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.277242835948725</v>
@@ -33708,7 +33480,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.592524372940204</v>
+        <v>1.518821052850723</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.278253257355307</v>
@@ -33797,7 +33569,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.597533162217687</v>
+        <v>1.529820183824159</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.342012025271386</v>
@@ -33886,7 +33658,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.606611847038039</v>
+        <v>1.536089643209583</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.346545911690629</v>
@@ -33975,7 +33747,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.580330549728473</v>
+        <v>1.513942628545986</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.299971780958814</v>
@@ -34064,7 +33836,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.571194233394493</v>
+        <v>1.506679824750948</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.308640615515039</v>
@@ -34153,7 +33925,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.569911194616338</v>
+        <v>1.512298688866295</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.320697831257771</v>
@@ -34242,7 +34014,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.579853396412251</v>
+        <v>1.525238165370647</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.276499397347644</v>
@@ -34331,7 +34103,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.573175146819568</v>
+        <v>1.518960522326104</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.254023619253505</v>
@@ -34420,7 +34192,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.563303754948716</v>
+        <v>1.512646508553303</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.309006017799583</v>
@@ -34509,7 +34281,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.56536613528091</v>
+        <v>1.496557671492049</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.002590000031867</v>
@@ -34598,7 +34370,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.581362283498629</v>
+        <v>1.516127025968306</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.452861159406729</v>
@@ -34687,7 +34459,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.584750279917369</v>
+        <v>1.521557225309723</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.036469926849117</v>
@@ -34776,7 +34548,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.591002567098811</v>
+        <v>1.518288310514373</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.110307634756916</v>
@@ -34865,7 +34637,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.606251513827749</v>
+        <v>1.523585857014733</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.806804799816043</v>
@@ -34954,7 +34726,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.604212878701723</v>
+        <v>1.521547553800622</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.160903811185877</v>
@@ -35043,7 +34815,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.607327874162713</v>
+        <v>1.521806712183725</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.180299507905189</v>
@@ -35132,7 +34904,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.609714083676218</v>
+        <v>1.519871147282508</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.943317801700181</v>
@@ -35221,7 +34993,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.608135657327335</v>
+        <v>1.524230200501135</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.737192366523708</v>
@@ -35310,7 +35082,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.626387520850299</v>
+        <v>1.53530158387678</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.35849717727452</v>
@@ -35399,7 +35171,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.619821028418066</v>
+        <v>1.528067140222893</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.121694158256187</v>
@@ -35488,7 +35260,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.590129379019</v>
+        <v>1.510862961829655</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.014423741890242</v>
@@ -35577,7 +35349,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.589819942115924</v>
+        <v>1.513942680520698</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.117935217923957</v>
@@ -35666,7 +35438,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.608244325585323</v>
+        <v>1.526599402502522</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.747628936536076</v>
@@ -35755,7 +35527,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.6045108866898</v>
+        <v>1.530156437555117</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.171548301259809</v>
@@ -35844,7 +35616,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.601914883797827</v>
+        <v>1.528618855546717</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.004423870355897</v>
@@ -35933,7 +35705,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.597876029624136</v>
+        <v>1.524120273411039</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.152040624969737</v>
@@ -36022,7 +35794,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.598101754554453</v>
+        <v>1.524482310691469</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.875600507289528</v>
@@ -36111,7 +35883,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.594777633202805</v>
+        <v>1.5212366189672</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.268206013623185</v>
@@ -36200,7 +35972,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.593829653220341</v>
+        <v>1.528420803395357</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.177392203077671</v>
@@ -36289,7 +36061,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.600956422865793</v>
+        <v>1.536877595380635</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.139107719992665</v>
@@ -36378,7 +36150,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.598933115009596</v>
+        <v>1.52861003096412</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.096866343013711</v>
@@ -36467,7 +36239,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.597591040213287</v>
+        <v>1.529690899279911</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.019972132061861</v>
@@ -36556,7 +36328,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.593178754025661</v>
+        <v>1.526463883427986</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.066218280484228</v>
@@ -36645,7 +36417,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.593075421706215</v>
+        <v>1.525849414399564</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.869631614787293</v>
@@ -36734,7 +36506,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.593687217034086</v>
+        <v>1.523825732908086</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.810700360915891</v>
@@ -36823,7 +36595,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.611320257736235</v>
+        <v>1.535012872895016</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.209476339285774</v>
@@ -36912,7 +36684,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.611332777950588</v>
+        <v>1.534287745277334</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.323052981005594</v>
@@ -37001,7 +36773,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.604380565653139</v>
+        <v>1.523166350622736</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.035170931461006</v>
@@ -37090,7 +36862,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.60021985835085</v>
+        <v>1.516989132484765</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.100517997941223</v>
@@ -37179,7 +36951,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.601808794607993</v>
+        <v>1.519012738191774</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.336385892317787</v>
@@ -37268,7 +37040,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.597205377790004</v>
+        <v>1.515532991381795</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.588357317594526</v>
@@ -37357,7 +37129,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.601579585694555</v>
+        <v>1.512049608475759</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.985702371326453</v>
@@ -37446,7 +37218,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.601963663622613</v>
+        <v>1.509881892106862</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.179246547299674</v>
@@ -37535,7 +37307,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.583793554501405</v>
+        <v>1.487964389649071</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.191559597614329</v>
@@ -37624,7 +37396,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.578130974602657</v>
+        <v>1.480251410326995</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.413247823840246</v>
@@ -37713,7 +37485,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.585185609096448</v>
+        <v>1.485107033911078</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.265396862456607</v>
@@ -37802,7 +37574,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.58028290458558</v>
+        <v>1.483273414716734</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.151910048363814</v>
@@ -37891,7 +37663,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.579867709890098</v>
+        <v>1.481849967071273</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.892721246151624</v>
@@ -37980,7 +37752,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.618405247454989</v>
+        <v>1.531861047227639</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.204375273207391</v>
@@ -38069,7 +37841,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.618761431642352</v>
+        <v>1.533369014776838</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.328778921309365</v>
@@ -38158,7 +37930,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.619015944736582</v>
+        <v>1.529586532340006</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.402221507496124</v>
@@ -38247,7 +38019,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.621435094251463</v>
+        <v>1.529742942022622</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.249923951590577</v>
@@ -38336,7 +38108,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.61756331536332</v>
+        <v>1.531269617974917</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.197604798405292</v>
@@ -38425,7 +38197,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.626186349078941</v>
+        <v>1.537772801643076</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.21319342406664</v>
@@ -38514,7 +38286,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.615012661198244</v>
+        <v>1.536455138421951</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.317362842772261</v>
@@ -38603,7 +38375,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.628953867776565</v>
+        <v>1.550901887762897</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.262140012394937</v>
@@ -38692,7 +38464,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.628787381029445</v>
+        <v>1.552852341771696</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.344809323383462</v>
@@ -38781,7 +38553,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.63831626791589</v>
+        <v>1.564265734610499</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.237231291738863</v>
@@ -38870,7 +38642,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.647172767630112</v>
+        <v>1.571895448344568</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.203694374427211</v>
@@ -38959,7 +38731,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.637373783772294</v>
+        <v>1.564191527579486</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.204064790708616</v>
@@ -39048,7 +38820,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.617294599722997</v>
+        <v>1.554033761055467</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.253530366842635</v>
@@ -39334,7 +39106,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.514924511990289</v>
+        <v>1.474065318923515</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.618545712221557</v>
@@ -39423,7 +39195,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.523991742651551</v>
+        <v>1.479086284800847</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.633599348835524</v>
@@ -39512,7 +39284,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.522870288994675</v>
+        <v>1.461794415739573</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.393509212001749</v>
@@ -39601,7 +39373,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.541470787565469</v>
+        <v>1.470264406652183</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.523031831067821</v>
@@ -39690,7 +39462,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.529505003781423</v>
+        <v>1.460471902455346</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.705603306554313</v>
@@ -39779,7 +39551,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.538244745118585</v>
+        <v>1.45751833742136</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.733197970952912</v>
@@ -39868,7 +39640,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.533482791453572</v>
+        <v>1.445741459992925</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.743208937039392</v>
@@ -39957,7 +39729,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.536178287137979</v>
+        <v>1.44830768327922</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.686968146776685</v>
@@ -40046,7 +39818,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.543162400393861</v>
+        <v>1.455463566723654</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.641415066394942</v>
@@ -40135,7 +39907,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.554265175219387</v>
+        <v>1.470462677403805</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.375672681475153</v>
@@ -40224,7 +39996,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.55792556954627</v>
+        <v>1.479290004085858</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.6815175410609</v>
@@ -40313,7 +40085,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.555886372466502</v>
+        <v>1.476701134697416</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.67379132984352</v>
@@ -40402,7 +40174,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.557728497249314</v>
+        <v>1.477250440830738</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.678399972089716</v>
@@ -40491,7 +40263,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.548560231516226</v>
+        <v>1.466822871581411</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.544858477298018</v>
@@ -40580,7 +40352,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.555998873518771</v>
+        <v>1.481644067343255</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.262248934924334</v>
@@ -40669,7 +40441,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.5438647425063</v>
+        <v>1.464718685454933</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.507618019456217</v>
@@ -40758,7 +40530,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.552638998438926</v>
+        <v>1.475274998587737</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.509016146920329</v>
@@ -40847,7 +40619,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.550904255437049</v>
+        <v>1.483206319808277</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.382840200826073</v>
@@ -40936,7 +40708,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.550518696397929</v>
+        <v>1.480479816265957</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.211238018759605</v>
@@ -41025,7 +40797,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.554813154104853</v>
+        <v>1.482750504528265</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.409061007891987</v>
@@ -41114,7 +40886,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.546352620693704</v>
+        <v>1.487352351324944</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.419633749583698</v>
@@ -41203,7 +40975,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.540161846109577</v>
+        <v>1.48839218851702</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.427058653000524</v>
@@ -41292,7 +41064,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.526284098040395</v>
+        <v>1.474055153221736</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.529546519339989</v>
@@ -41381,7 +41153,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.498268366312436</v>
+        <v>1.449353779431748</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.441880487028455</v>
@@ -41470,7 +41242,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.496239100739588</v>
+        <v>1.444575702651921</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.394423101210938</v>
@@ -41559,7 +41331,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.492592242744817</v>
+        <v>1.443366672264168</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.526465593646641</v>
@@ -41648,7 +41420,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.505407638487696</v>
+        <v>1.457787250159328</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.392560355906733</v>
@@ -41737,7 +41509,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.494426617416273</v>
+        <v>1.447353444735959</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.43961161076896</v>
@@ -41826,7 +41598,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.499132953497899</v>
+        <v>1.455202302359419</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.454424286590214</v>
@@ -41915,7 +41687,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.486746846131784</v>
+        <v>1.434214755636314</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.657297344492831</v>
@@ -42004,7 +41776,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.496257073111928</v>
+        <v>1.44637027448195</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.556584024547763</v>
@@ -42093,7 +41865,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.48931934775164</v>
+        <v>1.439016763566232</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.467020265174235</v>
@@ -42182,7 +41954,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.48659421030613</v>
+        <v>1.433353922582596</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.542065839842436</v>
@@ -42271,7 +42043,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.498634309723202</v>
+        <v>1.442929364218824</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.597526298005305</v>
@@ -42360,7 +42132,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.506268903698652</v>
+        <v>1.447952628559999</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.631012840641638</v>
@@ -42449,7 +42221,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.501013190439879</v>
+        <v>1.442712720782497</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.377632202925497</v>
@@ -42538,7 +42310,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.502762096159095</v>
+        <v>1.443049016667574</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.386480480531808</v>
@@ -42627,7 +42399,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.513895317221582</v>
+        <v>1.450167385669329</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.591808778009243</v>
@@ -42716,7 +42488,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.546523096407021</v>
+        <v>1.480794691402102</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.760244635706179</v>
@@ -42805,7 +42577,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.542660484963862</v>
+        <v>1.477418143244134</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.82724795243411</v>
@@ -42894,7 +42666,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.535996861586918</v>
+        <v>1.466432886621882</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.897355292892259</v>
@@ -42983,7 +42755,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.537191497710725</v>
+        <v>1.469810284417105</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.777068826805528</v>
@@ -43072,7 +42844,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.5456966490737</v>
+        <v>1.474102335635431</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.700998894803937</v>
@@ -43161,7 +42933,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.560940788671083</v>
+        <v>1.485749319794199</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.576242951639661</v>
@@ -43250,7 +43022,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.576028726860773</v>
+        <v>1.491494538587042</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.866948830353032</v>
@@ -43339,7 +43111,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.569986980834087</v>
+        <v>1.487578023812486</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.829018885743712</v>
@@ -43428,7 +43200,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.541958615267725</v>
+        <v>1.474118701446355</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.7434085238898</v>
@@ -43517,7 +43289,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.532031221430233</v>
+        <v>1.467440990747923</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.893352116658008</v>
@@ -43606,7 +43378,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.526592488110806</v>
+        <v>1.464835048380058</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.658378989232717</v>
@@ -43695,7 +43467,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.543441498720707</v>
+        <v>1.482289235331743</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.862625531580123</v>
@@ -43784,7 +43556,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.538335440562728</v>
+        <v>1.475819156782017</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.780320752105391</v>
@@ -43873,7 +43645,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.54882720734538</v>
+        <v>1.483187571119139</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.965525127884391</v>
@@ -43962,7 +43734,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.533468759112344</v>
+        <v>1.476725829262525</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.848732137031072</v>
@@ -44051,7 +43823,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.523226813143312</v>
+        <v>1.469747414458758</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.730464237229546</v>
@@ -44140,7 +43912,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.526720470914575</v>
+        <v>1.467444383245356</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.783495029329203</v>
@@ -44229,7 +44001,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.530249372562258</v>
+        <v>1.476016158269908</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.869106260355585</v>
@@ -44318,7 +44090,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.537564303063697</v>
+        <v>1.482438137020877</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.991812857151624</v>
@@ -44407,7 +44179,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.532196333857767</v>
+        <v>1.477557712270605</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.995049130539158</v>
@@ -44496,7 +44268,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.519066340013496</v>
+        <v>1.461126386949496</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.824003304340006</v>
@@ -44585,7 +44357,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.525480455843217</v>
+        <v>1.464682081023632</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.067280454449426</v>
@@ -44674,7 +44446,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.529508298219886</v>
+        <v>1.460530928420436</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.808790548794513</v>
@@ -44763,7 +44535,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.544926778655807</v>
+        <v>1.463579743344563</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.86136601716663</v>
@@ -44852,7 +44624,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.544897517208175</v>
+        <v>1.459873799991402</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.081261633631832</v>
@@ -44941,7 +44713,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.53986876402569</v>
+        <v>1.452760392050572</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.162095528420071</v>
@@ -45030,7 +44802,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.528556692288092</v>
+        <v>1.443537280442417</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.981071638138651</v>
@@ -45119,7 +44891,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.540483262236404</v>
+        <v>1.455113756985717</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.300854862979699</v>
@@ -45208,7 +44980,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.533272178076468</v>
+        <v>1.453755844111564</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.338170230347372</v>
@@ -45297,7 +45069,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.543806501136151</v>
+        <v>1.466035339519111</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.130089686647384</v>
@@ -45386,7 +45158,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.571209419717363</v>
+        <v>1.502288447645019</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.547044786325773</v>
@@ -45475,7 +45247,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.578651376479498</v>
+        <v>1.511667008849614</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.622367252117052</v>
@@ -45564,7 +45336,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.577064220968421</v>
+        <v>1.510657063963877</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.804790773856214</v>
@@ -45653,7 +45425,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.58387636459399</v>
+        <v>1.511996480416019</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.736349661299417</v>
@@ -45742,7 +45514,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.582679011752704</v>
+        <v>1.517592013011394</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.597015829482117</v>
@@ -45831,7 +45603,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.591797186508445</v>
+        <v>1.533988319065948</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.651733240498209</v>
@@ -45920,7 +45692,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.603562196746948</v>
+        <v>1.552540970189199</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.575917556525813</v>
@@ -46009,7 +45781,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.6152218890426</v>
+        <v>1.570559607447366</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.87987618698973</v>
@@ -46098,7 +45870,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.618255377757933</v>
+        <v>1.576690592349401</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.73381707108141</v>
@@ -46187,7 +45959,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.632551787327101</v>
+        <v>1.592199603224978</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.664626990759455</v>
@@ -46276,7 +46048,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.634340618870419</v>
+        <v>1.599104941100407</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.755356485953914</v>
@@ -46365,7 +46137,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.634097137988708</v>
+        <v>1.603423086501558</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.826475331181231</v>
@@ -46454,7 +46226,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.615508356278203</v>
+        <v>1.589728226908904</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.550251388037892</v>
@@ -46740,7 +46512,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.299843211106109</v>
+        <v>1.287358398433682</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.131816342669105</v>
@@ -46829,7 +46601,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.324777256549768</v>
+        <v>1.307464877795871</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.1195738516709</v>
@@ -46918,7 +46690,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.362702904557789</v>
+        <v>1.332897865510768</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.042322781785745</v>
@@ -47007,7 +46779,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.384079782341708</v>
+        <v>1.352936259821542</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.147410336705789</v>
@@ -47096,7 +46868,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.408160009381122</v>
+        <v>1.37426004318743</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.156612475264183</v>
@@ -47185,7 +46957,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.449754955499443</v>
+        <v>1.406839899259189</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.172791403283648</v>
@@ -47274,7 +47046,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.474360576964208</v>
+        <v>1.423456618447426</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.054257899763612</v>
@@ -47363,7 +47135,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.499963745149385</v>
+        <v>1.445202931782056</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.145042124747885</v>
@@ -47452,7 +47224,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.505879702550632</v>
+        <v>1.454695272737967</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.076023563206039</v>
@@ -47541,7 +47313,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.510310043274784</v>
+        <v>1.460164024803681</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.078419818419724</v>
@@ -47630,7 +47402,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.525331450447151</v>
+        <v>1.475373686748884</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.17497787131288</v>
@@ -47719,7 +47491,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.539077076679539</v>
+        <v>1.479027223154627</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.221690692702038</v>
@@ -47808,7 +47580,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.517907749785928</v>
+        <v>1.47549610402007</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.185942036190747</v>
@@ -47897,7 +47669,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.485220120304884</v>
+        <v>1.449898141282538</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.191154660045025</v>
@@ -47986,7 +47758,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.535477344216065</v>
+        <v>1.494018985591384</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.181505654821669</v>
@@ -48075,7 +47847,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.52318986783213</v>
+        <v>1.469414853357208</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.192481556508044</v>
@@ -48164,7 +47936,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.476361908752863</v>
+        <v>1.447362432455532</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.264880771246865</v>
@@ -48253,7 +48025,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.439211828416087</v>
+        <v>1.421496343412822</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.245192867560637</v>
@@ -48342,7 +48114,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.413253661326209</v>
+        <v>1.398891699464694</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.1727968421224</v>
@@ -48431,7 +48203,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.411238366591014</v>
+        <v>1.398496543467859</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.277217678473388</v>
@@ -48520,7 +48292,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.406852217349373</v>
+        <v>1.398173791158494</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.24159036606153</v>
@@ -48609,7 +48381,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.3987113678215</v>
+        <v>1.391786697203902</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.260626502678742</v>
@@ -48698,7 +48470,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.398792420956954</v>
+        <v>1.392032423016182</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.317099943673429</v>
@@ -48787,7 +48559,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.369170743846298</v>
+        <v>1.363633011398048</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.290439771210377</v>
@@ -48876,7 +48648,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.367661900982166</v>
+        <v>1.360625719297113</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.338726034041541</v>
@@ -48965,7 +48737,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.356544274959666</v>
+        <v>1.353600875060077</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.303323594212531</v>
@@ -49054,7 +48826,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.382174297837415</v>
+        <v>1.377690275622238</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.107553282348878</v>
@@ -49143,7 +48915,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.383029879526031</v>
+        <v>1.376861341845437</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.422852625667212</v>
@@ -49232,7 +49004,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.405313128453868</v>
+        <v>1.394731532988883</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.376650377539789</v>
@@ -49321,7 +49093,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.397064888782727</v>
+        <v>1.38116098139121</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.334790621543849</v>
@@ -49410,7 +49182,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.427916273464635</v>
+        <v>1.408752758447704</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.000733101562413</v>
@@ -49499,7 +49271,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.448300789610334</v>
+        <v>1.425445201876028</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.288027196836318</v>
@@ -49588,7 +49360,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.485340259085378</v>
+        <v>1.454150119607281</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.262668147221989</v>
@@ -49677,7 +49449,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.535468438086952</v>
+        <v>1.490457864548168</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.355048548152455</v>
@@ -49766,7 +49538,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.492707459700039</v>
+        <v>1.453315448212494</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.17384281017391</v>
@@ -49855,7 +49627,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.494820883349403</v>
+        <v>1.455594251086361</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.247480421786301</v>
@@ -49944,7 +49716,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.500519318518108</v>
+        <v>1.45978829245749</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.234456890330612</v>
@@ -50033,7 +49805,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.50554335501706</v>
+        <v>1.463753709079216</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.204492872259907</v>
@@ -50122,7 +49894,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.559651745825646</v>
+        <v>1.506320627936815</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.178487557235482</v>
@@ -50211,7 +49983,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.538455248659828</v>
+        <v>1.494321766719756</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.225963722673034</v>
@@ -50300,7 +50072,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.514083910045959</v>
+        <v>1.477332389326307</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.267570339427832</v>
@@ -50389,7 +50161,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.51763343501477</v>
+        <v>1.480886704593378</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.285034468496357</v>
@@ -50478,7 +50250,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.52623507464218</v>
+        <v>1.485740478117162</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.284127425482418</v>
@@ -50567,7 +50339,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.52828968959358</v>
+        <v>1.490325622917348</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.294555932657457</v>
@@ -50656,7 +50428,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.531927630257175</v>
+        <v>1.492353244474214</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.284096983961383</v>
@@ -50745,7 +50517,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.512215117001783</v>
+        <v>1.473245377245832</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.260385766935406</v>
@@ -50834,7 +50606,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.509225352103785</v>
+        <v>1.474619531600019</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.442903153566296</v>
@@ -50923,7 +50695,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.506289161280205</v>
+        <v>1.469407246603766</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.301759860864308</v>
@@ -51012,7 +50784,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.508217689023536</v>
+        <v>1.474180874641373</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.259961055429019</v>
@@ -51101,7 +50873,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.557707653785972</v>
+        <v>1.517125614043439</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.127191659160725</v>
@@ -51190,7 +50962,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.506397431065093</v>
+        <v>1.477934678357538</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.323251165846076</v>
@@ -51279,7 +51051,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.509021202768201</v>
+        <v>1.483991551890085</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.335076802882038</v>
@@ -51368,7 +51140,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.473506314181416</v>
+        <v>1.457894117977156</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.266230355028064</v>
@@ -51457,7 +51229,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.472195297568666</v>
+        <v>1.459677943404502</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.266546032776005</v>
@@ -51546,7 +51318,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.468546642187595</v>
+        <v>1.449015468194501</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.220504748367176</v>
@@ -51635,7 +51407,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.472649386137343</v>
+        <v>1.453332279430419</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.249193659901983</v>
@@ -51724,7 +51496,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.482752940301711</v>
+        <v>1.461246771274917</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.296102110268282</v>
@@ -51813,7 +51585,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.449133060339939</v>
+        <v>1.425139071313854</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.314079619609837</v>
@@ -51902,7 +51674,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.422165998513714</v>
+        <v>1.408897011286879</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.304823231753104</v>
@@ -51991,7 +51763,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.422470065705172</v>
+        <v>1.410270921319565</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.240719541352</v>
@@ -52080,7 +51852,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.427828005572942</v>
+        <v>1.412963233384751</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.098021096439558</v>
@@ -52169,7 +51941,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.432846952497009</v>
+        <v>1.414600075889309</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.205287172991911</v>
@@ -52258,7 +52030,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.433646180257838</v>
+        <v>1.4147492525012</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.361097227684907</v>
@@ -52347,7 +52119,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.42880474971082</v>
+        <v>1.405793072819721</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.272982037709919</v>
@@ -52436,7 +52208,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.428506241943162</v>
+        <v>1.401950436511771</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.363912036281077</v>
@@ -52525,7 +52297,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.46484974628525</v>
+        <v>1.429890874100471</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.387999971185383</v>
@@ -52614,7 +52386,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.420418012881007</v>
+        <v>1.395760671147652</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.283567248924809</v>
@@ -52703,7 +52475,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.418550036705768</v>
+        <v>1.392164019064468</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.28252723573211</v>
@@ -52792,7 +52564,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.446285994681102</v>
+        <v>1.4193557313132</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.163254698216654</v>
@@ -52881,7 +52653,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.459583952004462</v>
+        <v>1.430326741288719</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.216947109771859</v>
@@ -52970,7 +52742,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.428966725632831</v>
+        <v>1.401963683764947</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.313941217271276</v>
@@ -53059,7 +52831,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.440753233884789</v>
+        <v>1.405173137951378</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.056413669920688</v>
@@ -53148,7 +52920,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.438748449616542</v>
+        <v>1.40875841204616</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.142321477039413</v>
@@ -53237,7 +53009,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.44068863840708</v>
+        <v>1.414976446426307</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.226252038876138</v>
@@ -53326,7 +53098,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.438652837846275</v>
+        <v>1.415137246677894</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.169677326705663</v>
@@ -53415,7 +53187,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.4444799517651</v>
+        <v>1.426459246194354</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.267029897470726</v>
@@ -53504,7 +53276,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.439458484507967</v>
+        <v>1.420362528230448</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.265902819913136</v>
@@ -53593,7 +53365,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.423870843297578</v>
+        <v>1.408175168857501</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.250718972452473</v>
@@ -53682,7 +53454,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.426320168132625</v>
+        <v>1.413983230168266</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.228160902559568</v>
@@ -53771,7 +53543,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.410785866786106</v>
+        <v>1.400910850796021</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.287814536414693</v>
@@ -53860,7 +53632,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.378096740265909</v>
+        <v>1.371002378721284</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.132130292721262</v>
